--- a/datos/regresiones/Espana.xlsx
+++ b/datos/regresiones/Espana.xlsx
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>0.2</v>
       </c>
       <c r="AI2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0.2</v>
@@ -1401,7 +1401,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ2">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0.3333333333333333</v>
@@ -1425,7 +1425,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY2">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
         <v>0.2857142857142857</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY3">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ3">
         <v>0.1428571428571428</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ4">
         <v>0.1428571428571428</v>
@@ -3133,10 +3133,10 @@
         <v>0.25</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>2</v>
@@ -3187,7 +3187,7 @@
         <v>0.2</v>
       </c>
       <c r="AI7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ7">
         <v>0.4</v>
@@ -3211,7 +3211,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ7">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR7">
         <v>0.3333333333333333</v>
@@ -3235,7 +3235,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY7">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ7">
         <v>0.2857142857142857</v>
@@ -3540,7 +3540,7 @@
         <v>175</v>
       </c>
       <c r="AF8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG8">
         <v>0.2</v>
@@ -3911,7 +3911,7 @@
         <v>0.2</v>
       </c>
       <c r="AI9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0.2</v>
@@ -3935,7 +3935,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ9">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR9">
         <v>0.1666666666666667</v>
@@ -3959,7 +3959,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY9">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ9">
         <v>0.1428571428571428</v>
@@ -4025,7 +4025,7 @@
         <v>0.4</v>
       </c>
       <c r="BU9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV9">
         <v>0.2</v>
@@ -4043,7 +4043,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA9">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB9">
         <v>0.1666666666666667</v>
@@ -4061,7 +4061,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG9">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH9">
         <v>0.1428571428571428</v>
@@ -4219,10 +4219,10 @@
         <v>0.25</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -4273,7 +4273,7 @@
         <v>0.2</v>
       </c>
       <c r="AI10">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ10">
         <v>0.2</v>
@@ -4297,7 +4297,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ10">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR10">
         <v>0.1666666666666667</v>
@@ -4321,7 +4321,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY10">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ10">
         <v>0.1428571428571428</v>
@@ -4345,7 +4345,7 @@
         <v>0.5</v>
       </c>
       <c r="BG10">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH10">
         <v>0.25</v>
@@ -4387,7 +4387,7 @@
         <v>0.4</v>
       </c>
       <c r="BU10">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV10">
         <v>0.2</v>
@@ -4405,7 +4405,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA10">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB10">
         <v>0.1666666666666667</v>
@@ -4423,7 +4423,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG10">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH10">
         <v>0.1428571428571428</v>
@@ -4683,7 +4683,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY11">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ11">
         <v>0.1428571428571428</v>
@@ -4785,7 +4785,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG11">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH11">
         <v>0.1428571428571428</v>
@@ -4943,10 +4943,10 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="AY12">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ12">
         <v>0</v>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="BG12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH12">
         <v>0</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="BU12">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV12">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="CA12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB12">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="CG12">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="CH12">
         <v>0</v>
@@ -5305,10 +5305,10 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -5359,7 +5359,7 @@
         <v>0.2</v>
       </c>
       <c r="AI13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ13">
         <v>0.4</v>
@@ -5383,7 +5383,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ13">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR13">
         <v>0.3333333333333333</v>
@@ -5407,7 +5407,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY13">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ13">
         <v>0.2857142857142857</v>
@@ -6029,10 +6029,10 @@
         <v>0.25</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>2</v>
@@ -6083,7 +6083,7 @@
         <v>0.2</v>
       </c>
       <c r="AI15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
         <v>0.4</v>
@@ -6107,7 +6107,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ15">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR15">
         <v>0.3333333333333333</v>
@@ -6131,7 +6131,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY15">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ15">
         <v>0.2857142857142857</v>
@@ -6391,10 +6391,10 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ16">
         <v>0</v>
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="AY16">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ16">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>0.25</v>
       </c>
       <c r="BG16">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH16">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>0.2</v>
       </c>
       <c r="BU16">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV16">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA16">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB16">
         <v>0</v>
@@ -6595,7 +6595,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG16">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH16">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>177</v>
       </c>
       <c r="AF17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG17">
         <v>0.2</v>
@@ -6912,7 +6912,7 @@
         <v>177</v>
       </c>
       <c r="BR17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BS17">
         <v>0.4</v>
@@ -7555,7 +7555,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ19">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR19">
         <v>0.1666666666666667</v>
@@ -7579,7 +7579,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY19">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ19">
         <v>0.1428571428571428</v>
@@ -7663,7 +7663,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA19">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB19">
         <v>0.1666666666666667</v>
@@ -7681,7 +7681,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG19">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH19">
         <v>0.1428571428571428</v>
@@ -8201,10 +8201,10 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ21">
         <v>0</v>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="AY21">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ21">
         <v>0</v>
@@ -8327,7 +8327,7 @@
         <v>0.25</v>
       </c>
       <c r="BG21">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH21">
         <v>0</v>
@@ -8369,7 +8369,7 @@
         <v>0.2</v>
       </c>
       <c r="BU21">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV21">
         <v>0</v>
@@ -8387,7 +8387,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA21">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB21">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG21">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH21">
         <v>0</v>
@@ -8563,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
         <v>0</v>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="AY22">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ22">
         <v>0</v>
@@ -9287,10 +9287,10 @@
         <v>0.25</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -9341,7 +9341,7 @@
         <v>0.2</v>
       </c>
       <c r="AI24">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
         <v>0.2</v>
@@ -9365,7 +9365,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ24">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR24">
         <v>0.1666666666666667</v>
@@ -9389,7 +9389,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY24">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ24">
         <v>0.1428571428571428</v>
@@ -10089,7 +10089,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ26">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR26">
         <v>0.1666666666666667</v>
@@ -10113,7 +10113,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY26">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ26">
         <v>0.2857142857142857</v>
@@ -10197,7 +10197,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA26">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB26">
         <v>0.3333333333333333</v>
@@ -10215,7 +10215,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="CG26">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH26">
         <v>0.4285714285714285</v>
@@ -10373,10 +10373,10 @@
         <v>0.25</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -10427,7 +10427,7 @@
         <v>0.2</v>
       </c>
       <c r="AI27">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ27">
         <v>0.2</v>
@@ -10451,7 +10451,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR27">
         <v>0.1666666666666667</v>
@@ -10475,7 +10475,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY27">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ27">
         <v>0.2857142857142857</v>
@@ -10499,7 +10499,7 @@
         <v>0.25</v>
       </c>
       <c r="BG27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH27">
         <v>0.25</v>
@@ -10541,7 +10541,7 @@
         <v>0.2</v>
       </c>
       <c r="BU27">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV27">
         <v>0.2</v>
@@ -10559,7 +10559,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA27">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB27">
         <v>0.1666666666666667</v>
@@ -10577,7 +10577,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG27">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH27">
         <v>0.2857142857142857</v>
@@ -10789,7 +10789,7 @@
         <v>0.2</v>
       </c>
       <c r="AI28">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
         <v>0.2</v>
@@ -10813,7 +10813,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ28">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR28">
         <v>0.1666666666666667</v>
@@ -10837,7 +10837,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY28">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ28">
         <v>0.1428571428571428</v>
@@ -12183,10 +12183,10 @@
         <v>0.25</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -12237,7 +12237,7 @@
         <v>0.2</v>
       </c>
       <c r="AI32">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ32">
         <v>0.2</v>
@@ -12261,7 +12261,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ32">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR32">
         <v>0.1666666666666667</v>
@@ -12285,7 +12285,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY32">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ32">
         <v>0.1428571428571428</v>
@@ -12309,7 +12309,7 @@
         <v>0.25</v>
       </c>
       <c r="BG32">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH32">
         <v>0.25</v>
@@ -12351,7 +12351,7 @@
         <v>0.2</v>
       </c>
       <c r="BU32">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV32">
         <v>0.2</v>
@@ -12369,7 +12369,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA32">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB32">
         <v>0.1666666666666667</v>
@@ -12387,7 +12387,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG32">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH32">
         <v>0.1428571428571428</v>
@@ -12545,10 +12545,10 @@
         <v>0.25</v>
       </c>
       <c r="Q33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -12599,7 +12599,7 @@
         <v>0.2</v>
       </c>
       <c r="AI33">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ33">
         <v>0.2</v>
@@ -12623,7 +12623,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR33">
         <v>0.1666666666666667</v>
@@ -12647,7 +12647,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY33">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ33">
         <v>0.1428571428571428</v>
@@ -12671,7 +12671,7 @@
         <v>0.25</v>
       </c>
       <c r="BG33">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH33">
         <v>0.25</v>
@@ -12713,7 +12713,7 @@
         <v>0.2</v>
       </c>
       <c r="BU33">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV33">
         <v>0.2</v>
@@ -12731,7 +12731,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA33">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB33">
         <v>0.1666666666666667</v>
@@ -12749,7 +12749,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG33">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH33">
         <v>0.1428571428571428</v>
@@ -13269,10 +13269,10 @@
         <v>0.25</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -13323,7 +13323,7 @@
         <v>0.2</v>
       </c>
       <c r="AI35">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ35">
         <v>0.2</v>
@@ -13347,7 +13347,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ35">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR35">
         <v>0.1666666666666667</v>
@@ -13371,7 +13371,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY35">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ35">
         <v>0.1428571428571428</v>
@@ -13733,7 +13733,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY36">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ36">
         <v>0.1428571428571428</v>
@@ -13835,7 +13835,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG36">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH36">
         <v>0.2857142857142857</v>
@@ -14038,7 +14038,7 @@
         <v>175</v>
       </c>
       <c r="AF37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG37">
         <v>0.2</v>
@@ -14355,10 +14355,10 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -14409,7 +14409,7 @@
         <v>0.2</v>
       </c>
       <c r="AI38">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ38">
         <v>0.2</v>
@@ -14433,7 +14433,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR38">
         <v>0.1666666666666667</v>
@@ -14457,7 +14457,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY38">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ38">
         <v>0.1428571428571428</v>
@@ -14481,7 +14481,7 @@
         <v>0.25</v>
       </c>
       <c r="BG38">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH38">
         <v>0.25</v>
@@ -14523,7 +14523,7 @@
         <v>0.4</v>
       </c>
       <c r="BU38">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV38">
         <v>0.4</v>
@@ -14541,7 +14541,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA38">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB38">
         <v>0.3333333333333333</v>
@@ -14559,7 +14559,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG38">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH38">
         <v>0.2857142857142857</v>
@@ -14717,10 +14717,10 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -14771,7 +14771,7 @@
         <v>0</v>
       </c>
       <c r="AI39">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ39">
         <v>0</v>
@@ -14795,7 +14795,7 @@
         <v>0</v>
       </c>
       <c r="AQ39">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -14819,7 +14819,7 @@
         <v>0</v>
       </c>
       <c r="AY39">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ39">
         <v>0</v>
@@ -15133,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ40">
         <v>0</v>
@@ -15157,7 +15157,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ40">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR40">
         <v>0.1666666666666667</v>
@@ -15181,7 +15181,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY40">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ40">
         <v>0.1428571428571428</v>
@@ -15247,7 +15247,7 @@
         <v>0.2</v>
       </c>
       <c r="BU40">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV40">
         <v>0.2</v>
@@ -15265,7 +15265,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA40">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB40">
         <v>0.3333333333333333</v>
@@ -15283,7 +15283,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG40">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH40">
         <v>0.2857142857142857</v>
@@ -15486,7 +15486,7 @@
         <v>175</v>
       </c>
       <c r="AF41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG41">
         <v>0.2</v>
@@ -15600,7 +15600,7 @@
         <v>175</v>
       </c>
       <c r="BR41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BS41">
         <v>0.2</v>
@@ -16889,10 +16889,10 @@
         <v>0.25</v>
       </c>
       <c r="Q45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R45">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S45">
         <v>1</v>
@@ -16943,7 +16943,7 @@
         <v>0.2</v>
       </c>
       <c r="AI45">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AJ45">
         <v>0.2</v>
@@ -16967,7 +16967,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ45">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR45">
         <v>0.1666666666666667</v>
@@ -16991,7 +16991,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY45">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ45">
         <v>0.1428571428571428</v>
@@ -17015,7 +17015,7 @@
         <v>0.25</v>
       </c>
       <c r="BG45">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="BH45">
         <v>0.25</v>
@@ -17057,7 +17057,7 @@
         <v>0.2</v>
       </c>
       <c r="BU45">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="BV45">
         <v>0.2</v>
@@ -17075,7 +17075,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA45">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="CB45">
         <v>0.1666666666666667</v>
@@ -17093,7 +17093,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG45">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="CH45">
         <v>0.1428571428571428</v>
@@ -17296,7 +17296,7 @@
         <v>175</v>
       </c>
       <c r="AF46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG46">
         <v>0.2</v>
@@ -17410,7 +17410,7 @@
         <v>177</v>
       </c>
       <c r="BR46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BS46">
         <v>0.2</v>
@@ -17613,10 +17613,10 @@
         <v>0.5</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S47">
         <v>2</v>
@@ -17667,7 +17667,7 @@
         <v>0.4</v>
       </c>
       <c r="AI47">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ47">
         <v>0.4</v>
@@ -17691,7 +17691,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ47">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR47">
         <v>0.3333333333333333</v>
@@ -17715,7 +17715,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY47">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ47">
         <v>0.2857142857142857</v>
@@ -17817,7 +17817,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG47">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH47">
         <v>0.2857142857142857</v>
@@ -17975,10 +17975,10 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R48">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -18029,7 +18029,7 @@
         <v>0</v>
       </c>
       <c r="AI48">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ48">
         <v>0</v>
@@ -18053,7 +18053,7 @@
         <v>0</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR48">
         <v>0</v>
@@ -18077,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="AY48">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AZ48">
         <v>0</v>
@@ -18101,7 +18101,7 @@
         <v>0</v>
       </c>
       <c r="BG48">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="BH48">
         <v>0</v>
@@ -18143,7 +18143,7 @@
         <v>0</v>
       </c>
       <c r="BU48">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV48">
         <v>0</v>
@@ -18161,7 +18161,7 @@
         <v>0</v>
       </c>
       <c r="CA48">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB48">
         <v>0</v>
@@ -18179,7 +18179,7 @@
         <v>0</v>
       </c>
       <c r="CG48">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="CH48">
         <v>0</v>
@@ -18415,7 +18415,7 @@
         <v>0</v>
       </c>
       <c r="AQ49">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR49">
         <v>0</v>
@@ -18439,7 +18439,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY49">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ49">
         <v>0.1428571428571428</v>
@@ -18523,7 +18523,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA49">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB49">
         <v>0.1666666666666667</v>
@@ -18541,7 +18541,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG49">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH49">
         <v>0.2857142857142857</v>
@@ -19423,10 +19423,10 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -19477,7 +19477,7 @@
         <v>0</v>
       </c>
       <c r="AI52">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ52">
         <v>0</v>
@@ -19501,7 +19501,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ52">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR52">
         <v>0.1666666666666667</v>
@@ -19525,7 +19525,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY52">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ52">
         <v>0.1428571428571428</v>
@@ -19549,7 +19549,7 @@
         <v>0.25</v>
       </c>
       <c r="BG52">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH52">
         <v>0.25</v>
@@ -19591,7 +19591,7 @@
         <v>0.2</v>
       </c>
       <c r="BU52">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV52">
         <v>0.2</v>
@@ -19609,7 +19609,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA52">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB52">
         <v>0.3333333333333333</v>
@@ -19627,7 +19627,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG52">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH52">
         <v>0.2857142857142857</v>
@@ -19839,7 +19839,7 @@
         <v>0.2</v>
       </c>
       <c r="AI53">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ53">
         <v>0.2</v>
@@ -19863,7 +19863,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ53">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR53">
         <v>0.3333333333333333</v>
@@ -19887,7 +19887,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY53">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ53">
         <v>0.2857142857142857</v>
@@ -20249,7 +20249,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY54">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ54">
         <v>0.2857142857142857</v>
@@ -20509,10 +20509,10 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -20563,7 +20563,7 @@
         <v>0.2</v>
       </c>
       <c r="AI55">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ55">
         <v>0.2</v>
@@ -20587,7 +20587,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ55">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR55">
         <v>0.1666666666666667</v>
@@ -20611,7 +20611,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY55">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ55">
         <v>0.1428571428571428</v>
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="BG55">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH55">
         <v>0.25</v>
@@ -20677,7 +20677,7 @@
         <v>0.2</v>
       </c>
       <c r="BU55">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV55">
         <v>0.4</v>
@@ -20695,7 +20695,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA55">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB55">
         <v>0.3333333333333333</v>
@@ -20713,7 +20713,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG55">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH55">
         <v>0.2857142857142857</v>
@@ -20871,10 +20871,10 @@
         <v>0.25</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         <v>0.4</v>
       </c>
       <c r="AI56">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ56">
         <v>0.4</v>
@@ -20949,7 +20949,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ56">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR56">
         <v>0.3333333333333333</v>
@@ -20973,7 +20973,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY56">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ56">
         <v>0.2857142857142857</v>
@@ -21278,7 +21278,7 @@
         <v>175</v>
       </c>
       <c r="AF57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG57">
         <v>0.4</v>
@@ -22035,7 +22035,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ59">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR59">
         <v>0.3333333333333333</v>
@@ -22059,7 +22059,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="AY59">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ59">
         <v>0.4285714285714285</v>
@@ -22319,10 +22319,10 @@
         <v>0.5</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S60">
         <v>2</v>
@@ -22373,7 +22373,7 @@
         <v>0.4</v>
       </c>
       <c r="AI60">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ60">
         <v>0.4</v>
@@ -22397,7 +22397,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ60">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR60">
         <v>0.3333333333333333</v>
@@ -22421,7 +22421,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY60">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ60">
         <v>0.2857142857142857</v>
@@ -22487,7 +22487,7 @@
         <v>0.4</v>
       </c>
       <c r="BU60">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV60">
         <v>0.4</v>
@@ -22505,7 +22505,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA60">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB60">
         <v>0.3333333333333333</v>
@@ -22523,7 +22523,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG60">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH60">
         <v>0.2857142857142857</v>
@@ -23043,10 +23043,10 @@
         <v>0.25</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -23097,7 +23097,7 @@
         <v>0.2</v>
       </c>
       <c r="AI62">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ62">
         <v>0</v>
@@ -23121,7 +23121,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ62">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR62">
         <v>0.1666666666666667</v>
@@ -23145,7 +23145,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY62">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ62">
         <v>0.2857142857142857</v>
@@ -23405,10 +23405,10 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R63">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -23459,7 +23459,7 @@
         <v>0</v>
       </c>
       <c r="AI63">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ63">
         <v>0</v>
@@ -23483,7 +23483,7 @@
         <v>0</v>
       </c>
       <c r="AQ63">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR63">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY63">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ63">
         <v>0.1428571428571428</v>
@@ -23531,7 +23531,7 @@
         <v>0</v>
       </c>
       <c r="BG63">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH63">
         <v>0</v>
@@ -23573,7 +23573,7 @@
         <v>0</v>
       </c>
       <c r="BU63">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV63">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="CA63">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB63">
         <v>0</v>
@@ -23609,7 +23609,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG63">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH63">
         <v>0.1428571428571428</v>
@@ -23767,10 +23767,10 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R64">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -23821,7 +23821,7 @@
         <v>0</v>
       </c>
       <c r="AI64">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ64">
         <v>0</v>
@@ -23845,7 +23845,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ64">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR64">
         <v>0.1666666666666667</v>
@@ -23869,7 +23869,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY64">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ64">
         <v>0.1428571428571428</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="BG64">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH64">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="BU64">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV64">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA64">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB64">
         <v>0.1666666666666667</v>
@@ -23971,7 +23971,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG64">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH64">
         <v>0.1428571428571428</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="AQ67">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR67">
         <v>0</v>
@@ -24955,7 +24955,7 @@
         <v>0</v>
       </c>
       <c r="AY67">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ67">
         <v>0</v>
@@ -25039,7 +25039,7 @@
         <v>0</v>
       </c>
       <c r="CA67">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB67">
         <v>0</v>
@@ -25057,7 +25057,7 @@
         <v>0</v>
       </c>
       <c r="CG67">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH67">
         <v>0</v>
@@ -25215,10 +25215,10 @@
         <v>0.25</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -25269,7 +25269,7 @@
         <v>0.4</v>
       </c>
       <c r="AI68">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ68">
         <v>0.4</v>
@@ -25293,7 +25293,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ68">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR68">
         <v>0.3333333333333333</v>
@@ -25317,7 +25317,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY68">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ68">
         <v>0.2857142857142857</v>
@@ -25577,10 +25577,10 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="AI69">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ69">
         <v>0</v>
@@ -25655,7 +25655,7 @@
         <v>0</v>
       </c>
       <c r="AQ69">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR69">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="AY69">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ69">
         <v>0</v>
@@ -25703,7 +25703,7 @@
         <v>0</v>
       </c>
       <c r="BG69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH69">
         <v>0</v>
@@ -25745,7 +25745,7 @@
         <v>0</v>
       </c>
       <c r="BU69">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV69">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="CA69">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB69">
         <v>0</v>
@@ -25781,7 +25781,7 @@
         <v>0</v>
       </c>
       <c r="CG69">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH69">
         <v>0</v>
@@ -25939,10 +25939,10 @@
         <v>0.25</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -25993,7 +25993,7 @@
         <v>0.2</v>
       </c>
       <c r="AI70">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ70">
         <v>0.2</v>
@@ -26017,7 +26017,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ70">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR70">
         <v>0.3333333333333333</v>
@@ -26041,7 +26041,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY70">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ70">
         <v>0.2857142857142857</v>
@@ -26346,7 +26346,7 @@
         <v>175</v>
       </c>
       <c r="AF71" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG71">
         <v>0.2</v>
@@ -26765,7 +26765,7 @@
         <v>0</v>
       </c>
       <c r="AY72">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ72">
         <v>0</v>
@@ -26867,7 +26867,7 @@
         <v>0</v>
       </c>
       <c r="CG72">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH72">
         <v>0</v>
@@ -27127,7 +27127,7 @@
         <v>0</v>
       </c>
       <c r="AY73">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ73">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="AI74">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ74">
         <v>0</v>
@@ -27465,7 +27465,7 @@
         <v>0</v>
       </c>
       <c r="AQ74">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR74">
         <v>0</v>
@@ -27489,7 +27489,7 @@
         <v>0</v>
       </c>
       <c r="AY74">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ74">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="BU74">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV74">
         <v>0</v>
@@ -27573,7 +27573,7 @@
         <v>0</v>
       </c>
       <c r="CA74">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB74">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="CG74">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH74">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ75">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR75">
         <v>0.1666666666666667</v>
@@ -27851,7 +27851,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY75">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ75">
         <v>0.1428571428571428</v>
@@ -28835,10 +28835,10 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -28889,7 +28889,7 @@
         <v>0.2</v>
       </c>
       <c r="AI78">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ78">
         <v>0.2</v>
@@ -28913,7 +28913,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ78">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR78">
         <v>0.1666666666666667</v>
@@ -28937,7 +28937,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY78">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ78">
         <v>0.1428571428571428</v>
@@ -28961,7 +28961,7 @@
         <v>0</v>
       </c>
       <c r="BG78">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH78">
         <v>0</v>
@@ -29003,7 +29003,7 @@
         <v>0.2</v>
       </c>
       <c r="BU78">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV78">
         <v>0.2</v>
@@ -29021,7 +29021,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA78">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB78">
         <v>0.1666666666666667</v>
@@ -29039,7 +29039,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG78">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH78">
         <v>0.1428571428571428</v>
@@ -29251,7 +29251,7 @@
         <v>0.2</v>
       </c>
       <c r="AI79">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ79">
         <v>0.2</v>
@@ -29275,7 +29275,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ79">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR79">
         <v>0.1666666666666667</v>
@@ -29299,7 +29299,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY79">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ79">
         <v>0.1428571428571428</v>
@@ -29604,7 +29604,7 @@
         <v>177</v>
       </c>
       <c r="AF80" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG80">
         <v>0.2</v>
@@ -29718,7 +29718,7 @@
         <v>177</v>
       </c>
       <c r="BR80" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BS80">
         <v>0.2</v>
@@ -29921,10 +29921,10 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -29975,7 +29975,7 @@
         <v>0.2</v>
       </c>
       <c r="AI81">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ81">
         <v>0</v>
@@ -29999,7 +29999,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ81">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR81">
         <v>0</v>
@@ -30023,7 +30023,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY81">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ81">
         <v>0.1428571428571428</v>
@@ -30283,10 +30283,10 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R82">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -30337,7 +30337,7 @@
         <v>0</v>
       </c>
       <c r="AI82">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AJ82">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>0</v>
       </c>
       <c r="AQ82">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR82">
         <v>0</v>
@@ -30385,7 +30385,7 @@
         <v>0</v>
       </c>
       <c r="AY82">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ82">
         <v>0</v>
@@ -30451,7 +30451,7 @@
         <v>0</v>
       </c>
       <c r="BU82">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV82">
         <v>0.2</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="CA82">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB82">
         <v>0.1666666666666667</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="CG82">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH82">
         <v>0.1428571428571428</v>
@@ -32195,7 +32195,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY87">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ87">
         <v>0.1428571428571428</v>
@@ -32509,7 +32509,7 @@
         <v>0</v>
       </c>
       <c r="AI88">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ88">
         <v>0</v>
@@ -32533,7 +32533,7 @@
         <v>0</v>
       </c>
       <c r="AQ88">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR88">
         <v>0</v>
@@ -32557,7 +32557,7 @@
         <v>0</v>
       </c>
       <c r="AY88">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ88">
         <v>0</v>
@@ -32641,7 +32641,7 @@
         <v>0</v>
       </c>
       <c r="CA88">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="CB88">
         <v>0.1666666666666667</v>
@@ -32659,7 +32659,7 @@
         <v>0</v>
       </c>
       <c r="CG88">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="CH88">
         <v>0.1428571428571428</v>
@@ -32817,10 +32817,10 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R89">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S89">
         <v>0</v>
@@ -32871,7 +32871,7 @@
         <v>0</v>
       </c>
       <c r="AI89">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AJ89">
         <v>0</v>
@@ -32895,7 +32895,7 @@
         <v>0</v>
       </c>
       <c r="AQ89">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR89">
         <v>0</v>
@@ -32919,7 +32919,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY89">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ89">
         <v>0.1428571428571428</v>
@@ -32943,7 +32943,7 @@
         <v>0</v>
       </c>
       <c r="BG89">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="BH89">
         <v>0</v>
@@ -32985,7 +32985,7 @@
         <v>0</v>
       </c>
       <c r="BU89">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV89">
         <v>0</v>
@@ -33003,7 +33003,7 @@
         <v>0</v>
       </c>
       <c r="CA89">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB89">
         <v>0</v>
@@ -33021,7 +33021,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG89">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH89">
         <v>0.1428571428571428</v>
@@ -33541,10 +33541,10 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R91">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -33595,7 +33595,7 @@
         <v>0</v>
       </c>
       <c r="AI91">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AJ91">
         <v>0</v>
@@ -33619,7 +33619,7 @@
         <v>0</v>
       </c>
       <c r="AQ91">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR91">
         <v>0</v>
@@ -33643,7 +33643,7 @@
         <v>0</v>
       </c>
       <c r="AY91">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ91">
         <v>0</v>
@@ -33667,7 +33667,7 @@
         <v>0</v>
       </c>
       <c r="BG91">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="BH91">
         <v>0.25</v>
@@ -33709,7 +33709,7 @@
         <v>0</v>
       </c>
       <c r="BU91">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV91">
         <v>0.2</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="CA91">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB91">
         <v>0.1666666666666667</v>
@@ -33745,7 +33745,7 @@
         <v>0</v>
       </c>
       <c r="CG91">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH91">
         <v>0.1428571428571428</v>
@@ -34265,10 +34265,10 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S93">
         <v>0</v>
@@ -34319,7 +34319,7 @@
         <v>0.2</v>
       </c>
       <c r="AI93">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ93">
         <v>0.2</v>
@@ -34343,7 +34343,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ93">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AR93">
         <v>0.1666666666666667</v>
@@ -34367,7 +34367,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY93">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="AZ93">
         <v>0.1428571428571428</v>
@@ -34391,7 +34391,7 @@
         <v>0</v>
       </c>
       <c r="BG93">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH93">
         <v>0</v>
@@ -34433,7 +34433,7 @@
         <v>0.2</v>
       </c>
       <c r="BU93">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV93">
         <v>0.2</v>
@@ -34451,7 +34451,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA93">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB93">
         <v>0.1666666666666667</v>
@@ -34469,7 +34469,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG93">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH93">
         <v>0.1428571428571428</v>
@@ -35034,7 +35034,7 @@
         <v>175</v>
       </c>
       <c r="AF95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG95">
         <v>0</v>
@@ -35148,7 +35148,7 @@
         <v>175</v>
       </c>
       <c r="BR95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BS95">
         <v>0</v>
@@ -35396,7 +35396,7 @@
         <v>177</v>
       </c>
       <c r="AF96" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG96">
         <v>0</v>
@@ -35713,10 +35713,10 @@
         <v>0.25</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S97">
         <v>1</v>
@@ -35767,7 +35767,7 @@
         <v>0.2</v>
       </c>
       <c r="AI97">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ97">
         <v>0.2</v>
@@ -35791,7 +35791,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ97">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR97">
         <v>0.1666666666666667</v>
@@ -35815,7 +35815,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY97">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ97">
         <v>0.2857142857142857</v>
@@ -35839,7 +35839,7 @@
         <v>0.25</v>
       </c>
       <c r="BG97">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH97">
         <v>0.25</v>
@@ -35881,7 +35881,7 @@
         <v>0.2</v>
       </c>
       <c r="BU97">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV97">
         <v>0.2</v>
@@ -35899,7 +35899,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA97">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB97">
         <v>0.1666666666666667</v>
@@ -35917,7 +35917,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="CG97">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH97">
         <v>0.2857142857142857</v>
@@ -36877,7 +36877,7 @@
         <v>0</v>
       </c>
       <c r="AQ100">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR100">
         <v>0</v>
@@ -36901,7 +36901,7 @@
         <v>0</v>
       </c>
       <c r="AY100">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ100">
         <v>0</v>
@@ -37003,7 +37003,7 @@
         <v>0</v>
       </c>
       <c r="CG100">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="CH100">
         <v>0.1428571428571428</v>
@@ -37577,7 +37577,7 @@
         <v>0</v>
       </c>
       <c r="AI102">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ102">
         <v>0</v>
@@ -37601,7 +37601,7 @@
         <v>0</v>
       </c>
       <c r="AQ102">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR102">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="AY102">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ102">
         <v>0</v>
@@ -37963,7 +37963,7 @@
         <v>0</v>
       </c>
       <c r="AQ103">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR103">
         <v>0</v>
@@ -37987,7 +37987,7 @@
         <v>0</v>
       </c>
       <c r="AY103">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ103">
         <v>0</v>
@@ -38247,10 +38247,10 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R104">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S104">
         <v>0</v>
@@ -38301,7 +38301,7 @@
         <v>0</v>
       </c>
       <c r="AI104">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ104">
         <v>0</v>
@@ -38325,7 +38325,7 @@
         <v>0</v>
       </c>
       <c r="AQ104">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR104">
         <v>0</v>
@@ -38349,7 +38349,7 @@
         <v>0</v>
       </c>
       <c r="AY104">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ104">
         <v>0</v>
@@ -38609,10 +38609,10 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R105">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S105">
         <v>0</v>
@@ -38663,7 +38663,7 @@
         <v>0</v>
       </c>
       <c r="AI105">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ105">
         <v>0</v>
@@ -38687,7 +38687,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ105">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR105">
         <v>0.1666666666666667</v>
@@ -38711,7 +38711,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY105">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ105">
         <v>0.2857142857142857</v>
@@ -38735,7 +38735,7 @@
         <v>0</v>
       </c>
       <c r="BG105">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH105">
         <v>0</v>
@@ -38777,7 +38777,7 @@
         <v>0.2</v>
       </c>
       <c r="BU105">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV105">
         <v>0.2</v>
@@ -38795,7 +38795,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA105">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB105">
         <v>0.3333333333333333</v>
@@ -38813,7 +38813,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="CG105">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH105">
         <v>0.4285714285714285</v>
@@ -39073,7 +39073,7 @@
         <v>0</v>
       </c>
       <c r="AY106">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ106">
         <v>0</v>
@@ -39411,7 +39411,7 @@
         <v>0</v>
       </c>
       <c r="AQ107">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR107">
         <v>0</v>
@@ -39435,7 +39435,7 @@
         <v>0</v>
       </c>
       <c r="AY107">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ107">
         <v>0</v>
@@ -39519,7 +39519,7 @@
         <v>0</v>
       </c>
       <c r="CA107">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB107">
         <v>0</v>
@@ -39537,7 +39537,7 @@
         <v>0</v>
       </c>
       <c r="CG107">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH107">
         <v>0</v>
@@ -40111,7 +40111,7 @@
         <v>0</v>
       </c>
       <c r="AI109">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ109">
         <v>0</v>
@@ -40135,7 +40135,7 @@
         <v>0</v>
       </c>
       <c r="AQ109">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR109">
         <v>0</v>
@@ -40159,7 +40159,7 @@
         <v>0</v>
       </c>
       <c r="AY109">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ109">
         <v>0</v>
@@ -40225,7 +40225,7 @@
         <v>0</v>
       </c>
       <c r="BU109">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV109">
         <v>0</v>
@@ -40243,7 +40243,7 @@
         <v>0</v>
       </c>
       <c r="CA109">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB109">
         <v>0</v>
@@ -40261,7 +40261,7 @@
         <v>0</v>
       </c>
       <c r="CG109">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH109">
         <v>0</v>
@@ -40781,10 +40781,10 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S111">
         <v>0</v>
@@ -40826,7 +40826,7 @@
         <v>175</v>
       </c>
       <c r="AF111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG111">
         <v>0.2</v>
@@ -40835,7 +40835,7 @@
         <v>0.2</v>
       </c>
       <c r="AI111">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ111">
         <v>0.2</v>
@@ -40859,7 +40859,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ111">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR111">
         <v>0.3333333333333333</v>
@@ -40883,7 +40883,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="AY111">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ111">
         <v>0.4285714285714285</v>
@@ -40907,7 +40907,7 @@
         <v>0.25</v>
       </c>
       <c r="BG111">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH111">
         <v>0.25</v>
@@ -40949,7 +40949,7 @@
         <v>0.4</v>
       </c>
       <c r="BU111">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV111">
         <v>0.4</v>
@@ -40967,7 +40967,7 @@
         <v>0.5</v>
       </c>
       <c r="CA111">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB111">
         <v>0.5</v>
@@ -40985,7 +40985,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="CG111">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH111">
         <v>0.5714285714285714</v>
@@ -41505,10 +41505,10 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R113">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -41559,7 +41559,7 @@
         <v>0</v>
       </c>
       <c r="AI113">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ113">
         <v>0</v>
@@ -41583,7 +41583,7 @@
         <v>0</v>
       </c>
       <c r="AQ113">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR113">
         <v>0</v>
@@ -41607,7 +41607,7 @@
         <v>0</v>
       </c>
       <c r="AY113">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ113">
         <v>0</v>
@@ -41631,7 +41631,7 @@
         <v>0</v>
       </c>
       <c r="BG113">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH113">
         <v>0</v>
@@ -41673,7 +41673,7 @@
         <v>0</v>
       </c>
       <c r="BU113">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV113">
         <v>0</v>
@@ -41691,7 +41691,7 @@
         <v>0</v>
       </c>
       <c r="CA113">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB113">
         <v>0</v>
@@ -41709,7 +41709,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG113">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH113">
         <v>0.1428571428571428</v>
@@ -41867,10 +41867,10 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R114">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -41921,7 +41921,7 @@
         <v>0</v>
       </c>
       <c r="AI114">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ114">
         <v>0</v>
@@ -41945,7 +41945,7 @@
         <v>0</v>
       </c>
       <c r="AQ114">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR114">
         <v>0</v>
@@ -41969,7 +41969,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY114">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ114">
         <v>0.1428571428571428</v>
@@ -41993,7 +41993,7 @@
         <v>0</v>
       </c>
       <c r="BG114">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH114">
         <v>0</v>
@@ -42035,7 +42035,7 @@
         <v>0</v>
       </c>
       <c r="BU114">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV114">
         <v>0</v>
@@ -42053,7 +42053,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA114">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB114">
         <v>0.1666666666666667</v>
@@ -42071,7 +42071,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG114">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH114">
         <v>0.2857142857142857</v>
@@ -42591,10 +42591,10 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S116">
         <v>0</v>
@@ -42636,7 +42636,7 @@
         <v>177</v>
       </c>
       <c r="AF116" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG116">
         <v>0.2</v>
@@ -42645,7 +42645,7 @@
         <v>0</v>
       </c>
       <c r="AI116">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ116">
         <v>0</v>
@@ -42669,7 +42669,7 @@
         <v>0</v>
       </c>
       <c r="AQ116">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR116">
         <v>0</v>
@@ -42693,7 +42693,7 @@
         <v>0</v>
       </c>
       <c r="AY116">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ116">
         <v>0</v>
@@ -42750,7 +42750,7 @@
         <v>177</v>
       </c>
       <c r="BR116" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BS116">
         <v>0.2</v>
@@ -43315,10 +43315,10 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R118">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S118">
         <v>0</v>
@@ -43369,7 +43369,7 @@
         <v>0</v>
       </c>
       <c r="AI118">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ118">
         <v>0</v>
@@ -43393,7 +43393,7 @@
         <v>0</v>
       </c>
       <c r="AQ118">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR118">
         <v>0</v>
@@ -43417,7 +43417,7 @@
         <v>0</v>
       </c>
       <c r="AY118">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ118">
         <v>0</v>
@@ -44401,10 +44401,10 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S121">
         <v>0</v>
@@ -44455,7 +44455,7 @@
         <v>0</v>
       </c>
       <c r="AI121">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ121">
         <v>0</v>
@@ -44479,7 +44479,7 @@
         <v>0</v>
       </c>
       <c r="AQ121">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR121">
         <v>0</v>
@@ -44503,7 +44503,7 @@
         <v>0</v>
       </c>
       <c r="AY121">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ121">
         <v>0</v>
@@ -44605,7 +44605,7 @@
         <v>0</v>
       </c>
       <c r="CG121">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH121">
         <v>0</v>
@@ -45227,7 +45227,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY123">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ123">
         <v>0</v>
@@ -45487,10 +45487,10 @@
         <v>0.25</v>
       </c>
       <c r="Q124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R124">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -45541,7 +45541,7 @@
         <v>0.2</v>
       </c>
       <c r="AI124">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ124">
         <v>0.2</v>
@@ -45565,7 +45565,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ124">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR124">
         <v>0.1666666666666667</v>
@@ -45589,7 +45589,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY124">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ124">
         <v>0.2857142857142857</v>
@@ -45903,7 +45903,7 @@
         <v>0</v>
       </c>
       <c r="AI125">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ125">
         <v>0</v>
@@ -45927,7 +45927,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ125">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR125">
         <v>0.1666666666666667</v>
@@ -45951,7 +45951,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY125">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ125">
         <v>0.1428571428571428</v>
@@ -46017,7 +46017,7 @@
         <v>0</v>
       </c>
       <c r="BU125">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV125">
         <v>0</v>
@@ -46035,7 +46035,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA125">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB125">
         <v>0.1666666666666667</v>
@@ -46053,7 +46053,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG125">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH125">
         <v>0.1428571428571428</v>
@@ -46265,7 +46265,7 @@
         <v>0.2</v>
       </c>
       <c r="AI126">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ126">
         <v>0</v>
@@ -46289,7 +46289,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ126">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="AR126">
         <v>0</v>
@@ -46313,7 +46313,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY126">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AZ126">
         <v>0</v>
@@ -46935,10 +46935,10 @@
         <v>0.25</v>
       </c>
       <c r="Q128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S128">
         <v>1</v>
@@ -46989,7 +46989,7 @@
         <v>0.2</v>
       </c>
       <c r="AI128">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ128">
         <v>0.2</v>
@@ -47013,7 +47013,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ128">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR128">
         <v>0.1666666666666667</v>
@@ -47037,7 +47037,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY128">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ128">
         <v>0.1428571428571428</v>
@@ -47061,7 +47061,7 @@
         <v>0.25</v>
       </c>
       <c r="BG128">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH128">
         <v>0.25</v>
@@ -47103,7 +47103,7 @@
         <v>0.2</v>
       </c>
       <c r="BU128">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV128">
         <v>0.2</v>
@@ -47121,7 +47121,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA128">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB128">
         <v>0.1666666666666667</v>
@@ -47139,7 +47139,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG128">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH128">
         <v>0.1428571428571428</v>
@@ -47342,7 +47342,7 @@
         <v>175</v>
       </c>
       <c r="AF129" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG129">
         <v>0.4</v>
@@ -47375,7 +47375,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ129">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR129">
         <v>0</v>
@@ -47399,7 +47399,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY129">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AZ129">
         <v>0</v>
@@ -47456,7 +47456,7 @@
         <v>175</v>
       </c>
       <c r="BR129" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BS129">
         <v>0.4</v>
@@ -48383,10 +48383,10 @@
         <v>0.25</v>
       </c>
       <c r="Q132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S132">
         <v>1</v>
@@ -48437,7 +48437,7 @@
         <v>0.2</v>
       </c>
       <c r="AI132">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ132">
         <v>0.2</v>
@@ -48461,7 +48461,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ132">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR132">
         <v>0.1666666666666667</v>
@@ -48485,7 +48485,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY132">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ132">
         <v>0.1428571428571428</v>
@@ -48509,7 +48509,7 @@
         <v>0.25</v>
       </c>
       <c r="BG132">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH132">
         <v>0.25</v>
@@ -48551,7 +48551,7 @@
         <v>0.2</v>
       </c>
       <c r="BU132">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV132">
         <v>0.2</v>
@@ -48569,7 +48569,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA132">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB132">
         <v>0.1666666666666667</v>
@@ -48587,7 +48587,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG132">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH132">
         <v>0.1428571428571428</v>
@@ -48745,10 +48745,10 @@
         <v>0.25</v>
       </c>
       <c r="Q133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R133">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S133">
         <v>0</v>
@@ -48799,7 +48799,7 @@
         <v>0.2</v>
       </c>
       <c r="AI133">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ133">
         <v>0</v>
@@ -48823,7 +48823,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ133">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR133">
         <v>0</v>
@@ -48847,7 +48847,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY133">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ133">
         <v>0.1428571428571428</v>
@@ -49107,10 +49107,10 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R134">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S134">
         <v>1</v>
@@ -49161,7 +49161,7 @@
         <v>0</v>
       </c>
       <c r="AI134">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ134">
         <v>0.2</v>
@@ -49185,7 +49185,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ134">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR134">
         <v>0.3333333333333333</v>
@@ -49209,7 +49209,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY134">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ134">
         <v>0.2857142857142857</v>
@@ -49469,10 +49469,10 @@
         <v>0.25</v>
       </c>
       <c r="Q135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R135">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S135">
         <v>0</v>
@@ -49523,7 +49523,7 @@
         <v>0.2</v>
       </c>
       <c r="AI135">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ135">
         <v>0</v>
@@ -49547,7 +49547,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ135">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR135">
         <v>0.1666666666666667</v>
@@ -49571,7 +49571,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY135">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ135">
         <v>0.1428571428571428</v>
@@ -49933,7 +49933,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY136">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ136">
         <v>0.1428571428571428</v>
@@ -50035,7 +50035,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG136">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH136">
         <v>0.1428571428571428</v>
@@ -50962,7 +50962,7 @@
         <v>177</v>
       </c>
       <c r="AF139" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG139">
         <v>0.2</v>
@@ -50995,7 +50995,7 @@
         <v>0</v>
       </c>
       <c r="AQ139">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR139">
         <v>0</v>
@@ -51019,7 +51019,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY139">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ139">
         <v>0.1428571428571428</v>
@@ -51103,7 +51103,7 @@
         <v>0</v>
       </c>
       <c r="CA139">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB139">
         <v>0</v>
@@ -51121,7 +51121,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG139">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH139">
         <v>0.1428571428571428</v>
@@ -51279,10 +51279,10 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S140">
         <v>0</v>
@@ -51333,7 +51333,7 @@
         <v>0.2</v>
       </c>
       <c r="AI140">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ140">
         <v>0.2</v>
@@ -51357,7 +51357,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ140">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR140">
         <v>0.1666666666666667</v>
@@ -51381,7 +51381,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY140">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ140">
         <v>0.1428571428571428</v>
@@ -51405,7 +51405,7 @@
         <v>0</v>
       </c>
       <c r="BG140">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH140">
         <v>0</v>
@@ -51447,7 +51447,7 @@
         <v>0.2</v>
       </c>
       <c r="BU140">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV140">
         <v>0.2</v>
@@ -51465,7 +51465,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA140">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB140">
         <v>0.1666666666666667</v>
@@ -51483,7 +51483,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG140">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH140">
         <v>0.1428571428571428</v>
@@ -51641,10 +51641,10 @@
         <v>0.25</v>
       </c>
       <c r="Q141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S141">
         <v>1</v>
@@ -51695,7 +51695,7 @@
         <v>0.2</v>
       </c>
       <c r="AI141">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ141">
         <v>0.2</v>
@@ -51719,7 +51719,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ141">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR141">
         <v>0.1666666666666667</v>
@@ -51743,7 +51743,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY141">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ141">
         <v>0.1428571428571428</v>
@@ -51767,7 +51767,7 @@
         <v>0.25</v>
       </c>
       <c r="BG141">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH141">
         <v>0.25</v>
@@ -51809,7 +51809,7 @@
         <v>0.2</v>
       </c>
       <c r="BU141">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV141">
         <v>0.2</v>
@@ -51827,7 +51827,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA141">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB141">
         <v>0.1666666666666667</v>
@@ -51845,7 +51845,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG141">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH141">
         <v>0.1428571428571428</v>
@@ -52419,7 +52419,7 @@
         <v>0</v>
       </c>
       <c r="AI143">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ143">
         <v>0</v>
@@ -52443,7 +52443,7 @@
         <v>0</v>
       </c>
       <c r="AQ143">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR143">
         <v>0</v>
@@ -52467,7 +52467,7 @@
         <v>0</v>
       </c>
       <c r="AY143">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ143">
         <v>0</v>
@@ -52551,7 +52551,7 @@
         <v>0</v>
       </c>
       <c r="CA143">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB143">
         <v>0</v>
@@ -52569,7 +52569,7 @@
         <v>0</v>
       </c>
       <c r="CG143">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH143">
         <v>0</v>
@@ -53089,10 +53089,10 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R145">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S145">
         <v>0</v>
@@ -53143,7 +53143,7 @@
         <v>0</v>
       </c>
       <c r="AI145">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AJ145">
         <v>0</v>
@@ -53167,7 +53167,7 @@
         <v>0</v>
       </c>
       <c r="AQ145">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR145">
         <v>0</v>
@@ -53191,7 +53191,7 @@
         <v>0</v>
       </c>
       <c r="AY145">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ145">
         <v>0</v>
@@ -53215,7 +53215,7 @@
         <v>0</v>
       </c>
       <c r="BG145">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="BH145">
         <v>0</v>
@@ -53257,7 +53257,7 @@
         <v>0</v>
       </c>
       <c r="BU145">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV145">
         <v>0</v>
@@ -53275,7 +53275,7 @@
         <v>0</v>
       </c>
       <c r="CA145">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB145">
         <v>0</v>
@@ -53293,7 +53293,7 @@
         <v>0</v>
       </c>
       <c r="CG145">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="CH145">
         <v>0</v>
@@ -54175,10 +54175,10 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S148">
         <v>0</v>
@@ -54229,7 +54229,7 @@
         <v>0</v>
       </c>
       <c r="AI148">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AJ148">
         <v>0</v>
@@ -54253,7 +54253,7 @@
         <v>0</v>
       </c>
       <c r="AQ148">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR148">
         <v>0</v>
@@ -54277,7 +54277,7 @@
         <v>0</v>
       </c>
       <c r="AY148">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ148">
         <v>0</v>
@@ -54301,7 +54301,7 @@
         <v>0</v>
       </c>
       <c r="BG148">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH148">
         <v>0</v>
@@ -54343,7 +54343,7 @@
         <v>0</v>
       </c>
       <c r="BU148">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV148">
         <v>0</v>
@@ -54361,7 +54361,7 @@
         <v>0</v>
       </c>
       <c r="CA148">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB148">
         <v>0</v>
@@ -54379,7 +54379,7 @@
         <v>0</v>
       </c>
       <c r="CG148">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="CH148">
         <v>0</v>
@@ -54977,7 +54977,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ150">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR150">
         <v>0.1666666666666667</v>
@@ -55001,7 +55001,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY150">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ150">
         <v>0.1428571428571428</v>
@@ -55103,7 +55103,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG150">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH150">
         <v>0.1428571428571428</v>
@@ -56392,7 +56392,7 @@
         <v>177</v>
       </c>
       <c r="AF154" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG154">
         <v>0</v>
@@ -56709,10 +56709,10 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R155">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S155">
         <v>0</v>
@@ -56763,7 +56763,7 @@
         <v>0</v>
       </c>
       <c r="AI155">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ155">
         <v>0</v>
@@ -56787,7 +56787,7 @@
         <v>0</v>
       </c>
       <c r="AQ155">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR155">
         <v>0</v>
@@ -56811,7 +56811,7 @@
         <v>0</v>
       </c>
       <c r="AY155">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ155">
         <v>0</v>
@@ -56835,7 +56835,7 @@
         <v>0</v>
       </c>
       <c r="BG155">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH155">
         <v>0</v>
@@ -56877,7 +56877,7 @@
         <v>0</v>
       </c>
       <c r="BU155">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV155">
         <v>0</v>
@@ -56895,7 +56895,7 @@
         <v>0</v>
       </c>
       <c r="CA155">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB155">
         <v>0</v>
@@ -56913,7 +56913,7 @@
         <v>0</v>
       </c>
       <c r="CG155">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH155">
         <v>0</v>
@@ -57173,7 +57173,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY156">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ156">
         <v>0.1428571428571428</v>
@@ -57433,10 +57433,10 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S157">
         <v>0</v>
@@ -57487,7 +57487,7 @@
         <v>0</v>
       </c>
       <c r="AI157">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ157">
         <v>0</v>
@@ -57511,7 +57511,7 @@
         <v>0</v>
       </c>
       <c r="AQ157">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR157">
         <v>0</v>
@@ -57535,7 +57535,7 @@
         <v>0</v>
       </c>
       <c r="AY157">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ157">
         <v>0</v>
@@ -57559,7 +57559,7 @@
         <v>0</v>
       </c>
       <c r="BG157">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH157">
         <v>0</v>
@@ -57601,7 +57601,7 @@
         <v>0</v>
       </c>
       <c r="BU157">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV157">
         <v>0</v>
@@ -57619,7 +57619,7 @@
         <v>0</v>
       </c>
       <c r="CA157">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB157">
         <v>0</v>
@@ -57637,7 +57637,7 @@
         <v>0</v>
       </c>
       <c r="CG157">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH157">
         <v>0</v>
@@ -58202,7 +58202,7 @@
         <v>175</v>
       </c>
       <c r="AF159" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG159">
         <v>0</v>
@@ -58316,7 +58316,7 @@
         <v>175</v>
       </c>
       <c r="BR159" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BS159">
         <v>0</v>
@@ -58881,10 +58881,10 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R161">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S161">
         <v>0</v>
@@ -58935,7 +58935,7 @@
         <v>0</v>
       </c>
       <c r="AI161">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AJ161">
         <v>0</v>
@@ -58959,7 +58959,7 @@
         <v>0</v>
       </c>
       <c r="AQ161">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR161">
         <v>0</v>
@@ -58983,7 +58983,7 @@
         <v>0</v>
       </c>
       <c r="AY161">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ161">
         <v>0</v>
@@ -59049,7 +59049,7 @@
         <v>0</v>
       </c>
       <c r="BU161">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV161">
         <v>0</v>
@@ -59067,7 +59067,7 @@
         <v>0</v>
       </c>
       <c r="CA161">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB161">
         <v>0</v>
@@ -59085,7 +59085,7 @@
         <v>0</v>
       </c>
       <c r="CG161">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH161">
         <v>0</v>
@@ -59243,10 +59243,10 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R162">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S162">
         <v>0</v>
@@ -59297,7 +59297,7 @@
         <v>0</v>
       </c>
       <c r="AI162">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ162">
         <v>0</v>
@@ -59321,7 +59321,7 @@
         <v>0</v>
       </c>
       <c r="AQ162">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR162">
         <v>0</v>
@@ -59345,7 +59345,7 @@
         <v>0</v>
       </c>
       <c r="AY162">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ162">
         <v>0</v>
@@ -59447,7 +59447,7 @@
         <v>0</v>
       </c>
       <c r="CG162">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH162">
         <v>0</v>
@@ -61098,7 +61098,7 @@
         <v>175</v>
       </c>
       <c r="AF167" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG167">
         <v>0.4</v>
@@ -61131,7 +61131,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ167">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR167">
         <v>0.1666666666666667</v>
@@ -61155,7 +61155,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY167">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ167">
         <v>0.1428571428571428</v>
@@ -61239,7 +61239,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA167">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB167">
         <v>0.1666666666666667</v>
@@ -61257,7 +61257,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG167">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH167">
         <v>0.1428571428571428</v>
@@ -61777,10 +61777,10 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R169">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S169">
         <v>0</v>
@@ -61831,7 +61831,7 @@
         <v>0</v>
       </c>
       <c r="AI169">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ169">
         <v>0</v>
@@ -61855,7 +61855,7 @@
         <v>0</v>
       </c>
       <c r="AQ169">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR169">
         <v>0</v>
@@ -61879,7 +61879,7 @@
         <v>0</v>
       </c>
       <c r="AY169">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ169">
         <v>0</v>
@@ -61903,7 +61903,7 @@
         <v>0</v>
       </c>
       <c r="BG169">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH169">
         <v>0</v>
@@ -61945,7 +61945,7 @@
         <v>0.2</v>
       </c>
       <c r="BU169">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV169">
         <v>0.2</v>
@@ -61963,7 +61963,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA169">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB169">
         <v>0.1666666666666667</v>
@@ -61981,7 +61981,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG169">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH169">
         <v>0.1428571428571428</v>
@@ -62501,10 +62501,10 @@
         <v>0.25</v>
       </c>
       <c r="Q171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R171">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S171">
         <v>1</v>
@@ -62555,7 +62555,7 @@
         <v>0.2</v>
       </c>
       <c r="AI171">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ171">
         <v>0.2</v>
@@ -62579,7 +62579,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ171">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR171">
         <v>0.1666666666666667</v>
@@ -62603,7 +62603,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY171">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ171">
         <v>0.1428571428571428</v>
@@ -62627,7 +62627,7 @@
         <v>0.25</v>
       </c>
       <c r="BG171">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH171">
         <v>0.25</v>
@@ -62669,7 +62669,7 @@
         <v>0.2</v>
       </c>
       <c r="BU171">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV171">
         <v>0.2</v>
@@ -62687,7 +62687,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA171">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB171">
         <v>0.3333333333333333</v>
@@ -62705,7 +62705,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG171">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH171">
         <v>0.2857142857142857</v>
@@ -63327,7 +63327,7 @@
         <v>0</v>
       </c>
       <c r="AY173">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ173">
         <v>0</v>
@@ -63587,10 +63587,10 @@
         <v>0.25</v>
       </c>
       <c r="Q174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R174">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S174">
         <v>1</v>
@@ -63641,7 +63641,7 @@
         <v>0.2</v>
       </c>
       <c r="AI174">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AJ174">
         <v>0.2</v>
@@ -63665,7 +63665,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ174">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR174">
         <v>0.1666666666666667</v>
@@ -63689,7 +63689,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY174">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ174">
         <v>0.1428571428571428</v>
@@ -63755,7 +63755,7 @@
         <v>0.2</v>
       </c>
       <c r="BU174">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV174">
         <v>0.2</v>
@@ -63773,7 +63773,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA174">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB174">
         <v>0.1666666666666667</v>
@@ -63791,7 +63791,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG174">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH174">
         <v>0.1428571428571428</v>
@@ -63994,7 +63994,7 @@
         <v>175</v>
       </c>
       <c r="AF175" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG175">
         <v>0.6</v>
@@ -64027,7 +64027,7 @@
         <v>0</v>
       </c>
       <c r="AQ175">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR175">
         <v>0</v>
@@ -64051,7 +64051,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY175">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ175">
         <v>0.1428571428571428</v>
@@ -64108,7 +64108,7 @@
         <v>175</v>
       </c>
       <c r="BR175" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BS175">
         <v>0.6</v>
@@ -64365,7 +64365,7 @@
         <v>0</v>
       </c>
       <c r="AI176">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ176">
         <v>0</v>
@@ -64389,7 +64389,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ176">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR176">
         <v>0.1666666666666667</v>
@@ -64413,7 +64413,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY176">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ176">
         <v>0.1428571428571428</v>
@@ -64673,10 +64673,10 @@
         <v>0.25</v>
       </c>
       <c r="Q177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R177">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S177">
         <v>1</v>
@@ -64727,7 +64727,7 @@
         <v>0.2</v>
       </c>
       <c r="AI177">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AJ177">
         <v>0.2</v>
@@ -64751,7 +64751,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ177">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR177">
         <v>0.1666666666666667</v>
@@ -64775,7 +64775,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY177">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ177">
         <v>0.1428571428571428</v>
@@ -64799,7 +64799,7 @@
         <v>0.25</v>
       </c>
       <c r="BG177">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="BH177">
         <v>0.25</v>
@@ -64841,7 +64841,7 @@
         <v>0.2</v>
       </c>
       <c r="BU177">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV177">
         <v>0.2</v>
@@ -64859,7 +64859,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA177">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB177">
         <v>0.1666666666666667</v>
@@ -64877,7 +64877,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG177">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH177">
         <v>0.2857142857142857</v>
@@ -65035,10 +65035,10 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S178">
         <v>0</v>
@@ -65089,7 +65089,7 @@
         <v>0</v>
       </c>
       <c r="AI178">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ178">
         <v>0</v>
@@ -65113,7 +65113,7 @@
         <v>0</v>
       </c>
       <c r="AQ178">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR178">
         <v>0</v>
@@ -65137,7 +65137,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY178">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ178">
         <v>0.1428571428571428</v>
@@ -65161,7 +65161,7 @@
         <v>0.25</v>
       </c>
       <c r="BG178">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH178">
         <v>0.25</v>
@@ -65203,7 +65203,7 @@
         <v>0.2</v>
       </c>
       <c r="BU178">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV178">
         <v>0.2</v>
@@ -65221,7 +65221,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA178">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB178">
         <v>0.1666666666666667</v>
@@ -65239,7 +65239,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG178">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH178">
         <v>0.2857142857142857</v>
@@ -66121,10 +66121,10 @@
         <v>0.25</v>
       </c>
       <c r="Q181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S181">
         <v>1</v>
@@ -66175,7 +66175,7 @@
         <v>0.4</v>
       </c>
       <c r="AI181">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ181">
         <v>0.4</v>
@@ -66199,7 +66199,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ181">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR181">
         <v>0.3333333333333333</v>
@@ -66223,7 +66223,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY181">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ181">
         <v>0.2857142857142857</v>
@@ -66483,10 +66483,10 @@
         <v>0.25</v>
       </c>
       <c r="Q182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S182">
         <v>0</v>
@@ -66537,7 +66537,7 @@
         <v>0.2</v>
       </c>
       <c r="AI182">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AJ182">
         <v>0</v>
@@ -66561,7 +66561,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ182">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR182">
         <v>0</v>
@@ -66585,7 +66585,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY182">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ182">
         <v>0.1428571428571428</v>
@@ -66609,7 +66609,7 @@
         <v>0.25</v>
       </c>
       <c r="BG182">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH182">
         <v>0.25</v>
@@ -66651,7 +66651,7 @@
         <v>0.2</v>
       </c>
       <c r="BU182">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV182">
         <v>0.2</v>
@@ -66669,7 +66669,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA182">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB182">
         <v>0.1666666666666667</v>
@@ -66687,7 +66687,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG182">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH182">
         <v>0.2857142857142857</v>
@@ -66845,10 +66845,10 @@
         <v>0.25</v>
       </c>
       <c r="Q183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R183">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S183">
         <v>0</v>
@@ -66899,7 +66899,7 @@
         <v>0.2</v>
       </c>
       <c r="AI183">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ183">
         <v>0</v>
@@ -66923,7 +66923,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ183">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR183">
         <v>0</v>
@@ -66947,7 +66947,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY183">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ183">
         <v>0.1428571428571428</v>
@@ -66971,7 +66971,7 @@
         <v>0.25</v>
       </c>
       <c r="BG183">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH183">
         <v>0.25</v>
@@ -67013,7 +67013,7 @@
         <v>0.2</v>
       </c>
       <c r="BU183">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV183">
         <v>0.2</v>
@@ -67031,7 +67031,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA183">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB183">
         <v>0.1666666666666667</v>
@@ -67049,7 +67049,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG183">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH183">
         <v>0.2857142857142857</v>
@@ -67614,7 +67614,7 @@
         <v>177</v>
       </c>
       <c r="AF185" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG185">
         <v>0.4</v>
@@ -68757,7 +68757,7 @@
         <v>0</v>
       </c>
       <c r="AY188">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ188">
         <v>0.1428571428571428</v>
@@ -69379,10 +69379,10 @@
         <v>0.25</v>
       </c>
       <c r="Q190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R190">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S190">
         <v>1</v>
@@ -69433,7 +69433,7 @@
         <v>0.2</v>
       </c>
       <c r="AI190">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ190">
         <v>0.2</v>
@@ -69457,7 +69457,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ190">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR190">
         <v>0.3333333333333333</v>
@@ -69481,7 +69481,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY190">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ190">
         <v>0.2857142857142857</v>
@@ -69505,7 +69505,7 @@
         <v>0.25</v>
       </c>
       <c r="BG190">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="BH190">
         <v>0.25</v>
@@ -69547,7 +69547,7 @@
         <v>0.2</v>
       </c>
       <c r="BU190">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV190">
         <v>0.2</v>
@@ -69565,7 +69565,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA190">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB190">
         <v>0.3333333333333333</v>
@@ -69583,7 +69583,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG190">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH190">
         <v>0.2857142857142857</v>
@@ -69786,7 +69786,7 @@
         <v>175</v>
       </c>
       <c r="AF191" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG191">
         <v>0.4</v>
@@ -69900,7 +69900,7 @@
         <v>175</v>
       </c>
       <c r="BR191" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BS191">
         <v>0.4</v>
@@ -70157,7 +70157,7 @@
         <v>0</v>
       </c>
       <c r="AI192">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ192">
         <v>0.2</v>
@@ -70181,7 +70181,7 @@
         <v>0</v>
       </c>
       <c r="AQ192">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR192">
         <v>0.1666666666666667</v>
@@ -70205,7 +70205,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY192">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ192">
         <v>0.1428571428571428</v>
@@ -70543,7 +70543,7 @@
         <v>0</v>
       </c>
       <c r="AQ193">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR193">
         <v>0.1666666666666667</v>
@@ -70567,7 +70567,7 @@
         <v>0</v>
       </c>
       <c r="AY193">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ193">
         <v>0.1428571428571428</v>
@@ -72275,10 +72275,10 @@
         <v>0.25</v>
       </c>
       <c r="Q198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S198">
         <v>0</v>
@@ -72329,7 +72329,7 @@
         <v>0.2</v>
       </c>
       <c r="AI198">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ198">
         <v>0</v>
@@ -72353,7 +72353,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ198">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR198">
         <v>0</v>
@@ -72377,7 +72377,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY198">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ198">
         <v>0</v>
@@ -72443,7 +72443,7 @@
         <v>0.4</v>
       </c>
       <c r="BU198">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV198">
         <v>0.2</v>
@@ -72461,7 +72461,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA198">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB198">
         <v>0.1666666666666667</v>
@@ -72479,7 +72479,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG198">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH198">
         <v>0.1428571428571428</v>
@@ -72637,10 +72637,10 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R199">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S199">
         <v>0</v>
@@ -72691,7 +72691,7 @@
         <v>0.2</v>
       </c>
       <c r="AI199">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ199">
         <v>0</v>
@@ -72715,7 +72715,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ199">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR199">
         <v>0</v>
@@ -72739,7 +72739,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY199">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ199">
         <v>0</v>
@@ -72823,7 +72823,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA199">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB199">
         <v>0.1666666666666667</v>
@@ -72841,7 +72841,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG199">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="CH199">
         <v>0.1428571428571428</v>
@@ -72999,10 +72999,10 @@
         <v>0.25</v>
       </c>
       <c r="Q200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R200">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S200">
         <v>0</v>
@@ -73053,7 +73053,7 @@
         <v>0.2</v>
       </c>
       <c r="AI200">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ200">
         <v>0</v>
@@ -73077,7 +73077,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ200">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR200">
         <v>0.1666666666666667</v>
@@ -73101,7 +73101,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY200">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ200">
         <v>0.1428571428571428</v>
@@ -73125,7 +73125,7 @@
         <v>0.25</v>
       </c>
       <c r="BG200">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH200">
         <v>0.25</v>
@@ -73167,7 +73167,7 @@
         <v>0.2</v>
       </c>
       <c r="BU200">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV200">
         <v>0.2</v>
@@ -73185,7 +73185,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA200">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB200">
         <v>0.3333333333333333</v>
@@ -73203,7 +73203,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG200">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH200">
         <v>0.2857142857142857</v>
@@ -73361,10 +73361,10 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R201">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S201">
         <v>0</v>
@@ -73415,7 +73415,7 @@
         <v>0</v>
       </c>
       <c r="AI201">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ201">
         <v>0</v>
@@ -73439,7 +73439,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ201">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR201">
         <v>0</v>
@@ -73463,7 +73463,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY201">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ201">
         <v>0</v>
@@ -73565,7 +73565,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG201">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH201">
         <v>0.1428571428571428</v>
@@ -73777,7 +73777,7 @@
         <v>0</v>
       </c>
       <c r="AI202">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ202">
         <v>0</v>
@@ -73801,7 +73801,7 @@
         <v>0</v>
       </c>
       <c r="AQ202">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR202">
         <v>0</v>
@@ -73825,7 +73825,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY202">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ202">
         <v>0.1428571428571428</v>
@@ -73891,7 +73891,7 @@
         <v>0.2</v>
       </c>
       <c r="BU202">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV202">
         <v>0</v>
@@ -73909,7 +73909,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA202">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB202">
         <v>0</v>
@@ -73927,7 +73927,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG202">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH202">
         <v>0.1428571428571428</v>
@@ -74447,10 +74447,10 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R204">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S204">
         <v>0</v>
@@ -74501,7 +74501,7 @@
         <v>0</v>
       </c>
       <c r="AI204">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ204">
         <v>0</v>
@@ -74525,7 +74525,7 @@
         <v>0</v>
       </c>
       <c r="AQ204">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR204">
         <v>0</v>
@@ -74549,7 +74549,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY204">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ204">
         <v>0.1428571428571428</v>
@@ -74809,10 +74809,10 @@
         <v>0.25</v>
       </c>
       <c r="Q205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R205">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S205">
         <v>1</v>
@@ -74863,7 +74863,7 @@
         <v>0.2</v>
       </c>
       <c r="AI205">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ205">
         <v>0.2</v>
@@ -74887,7 +74887,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ205">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR205">
         <v>0.1666666666666667</v>
@@ -74911,7 +74911,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY205">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ205">
         <v>0.1428571428571428</v>
@@ -74935,7 +74935,7 @@
         <v>0.25</v>
       </c>
       <c r="BG205">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH205">
         <v>0.25</v>
@@ -74977,7 +74977,7 @@
         <v>0.2</v>
       </c>
       <c r="BU205">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV205">
         <v>0.2</v>
@@ -74995,7 +74995,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA205">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB205">
         <v>0.1666666666666667</v>
@@ -75013,7 +75013,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG205">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH205">
         <v>0.1428571428571428</v>
@@ -75533,10 +75533,10 @@
         <v>0.25</v>
       </c>
       <c r="Q207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R207">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S207">
         <v>1</v>
@@ -75587,7 +75587,7 @@
         <v>0.2</v>
       </c>
       <c r="AI207">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ207">
         <v>0.2</v>
@@ -75611,7 +75611,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ207">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR207">
         <v>0.1666666666666667</v>
@@ -75635,7 +75635,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY207">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ207">
         <v>0.1428571428571428</v>
@@ -75659,7 +75659,7 @@
         <v>0.25</v>
       </c>
       <c r="BG207">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH207">
         <v>0.25</v>
@@ -75701,7 +75701,7 @@
         <v>0.2</v>
       </c>
       <c r="BU207">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV207">
         <v>0.2</v>
@@ -75719,7 +75719,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA207">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB207">
         <v>0.1666666666666667</v>
@@ -75737,7 +75737,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG207">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH207">
         <v>0.1428571428571428</v>
@@ -76335,7 +76335,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ209">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR209">
         <v>0.1666666666666667</v>
@@ -76359,7 +76359,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY209">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ209">
         <v>0.1428571428571428</v>
@@ -76619,10 +76619,10 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R210">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S210">
         <v>0</v>
@@ -76673,7 +76673,7 @@
         <v>0</v>
       </c>
       <c r="AI210">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ210">
         <v>0</v>
@@ -76697,7 +76697,7 @@
         <v>0</v>
       </c>
       <c r="AQ210">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR210">
         <v>0</v>
@@ -76721,7 +76721,7 @@
         <v>0</v>
       </c>
       <c r="AY210">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ210">
         <v>0</v>
@@ -77059,7 +77059,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ211">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR211">
         <v>0.1666666666666667</v>
@@ -77083,7 +77083,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY211">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ211">
         <v>0.1428571428571428</v>
@@ -77167,7 +77167,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA211">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB211">
         <v>0.1666666666666667</v>
@@ -77185,7 +77185,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG211">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH211">
         <v>0.1428571428571428</v>
@@ -77445,7 +77445,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY212">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ212">
         <v>0.1428571428571428</v>
@@ -77547,7 +77547,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG212">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH212">
         <v>0.2857142857142857</v>
@@ -78067,10 +78067,10 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R214">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S214">
         <v>0</v>
@@ -78121,7 +78121,7 @@
         <v>0</v>
       </c>
       <c r="AI214">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ214">
         <v>0</v>
@@ -78145,7 +78145,7 @@
         <v>0</v>
       </c>
       <c r="AQ214">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR214">
         <v>0</v>
@@ -78169,7 +78169,7 @@
         <v>0</v>
       </c>
       <c r="AY214">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ214">
         <v>0</v>
@@ -78429,10 +78429,10 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R215">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S215">
         <v>0</v>
@@ -78483,7 +78483,7 @@
         <v>0.2</v>
       </c>
       <c r="AI215">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ215">
         <v>0.2</v>
@@ -78507,7 +78507,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ215">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR215">
         <v>0.1666666666666667</v>
@@ -78531,7 +78531,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY215">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ215">
         <v>0.1428571428571428</v>
@@ -78555,7 +78555,7 @@
         <v>0.25</v>
       </c>
       <c r="BG215">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH215">
         <v>0</v>
@@ -78597,7 +78597,7 @@
         <v>0.4</v>
       </c>
       <c r="BU215">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV215">
         <v>0.2</v>
@@ -78615,7 +78615,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA215">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB215">
         <v>0.1666666666666667</v>
@@ -78633,7 +78633,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG215">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH215">
         <v>0.1428571428571428</v>
@@ -78836,7 +78836,7 @@
         <v>175</v>
       </c>
       <c r="AF216" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG216">
         <v>0.4</v>
@@ -79153,10 +79153,10 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R217">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S217">
         <v>0</v>
@@ -79207,7 +79207,7 @@
         <v>0</v>
       </c>
       <c r="AI217">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ217">
         <v>0</v>
@@ -79231,7 +79231,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ217">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR217">
         <v>0.1666666666666667</v>
@@ -79255,7 +79255,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY217">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ217">
         <v>0.1428571428571428</v>
@@ -79279,7 +79279,7 @@
         <v>0.25</v>
       </c>
       <c r="BG217">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH217">
         <v>0</v>
@@ -79321,7 +79321,7 @@
         <v>0.2</v>
       </c>
       <c r="BU217">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV217">
         <v>0</v>
@@ -79339,7 +79339,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA217">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB217">
         <v>0.1666666666666667</v>
@@ -79357,7 +79357,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG217">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH217">
         <v>0.1428571428571428</v>
@@ -79877,10 +79877,10 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R219">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S219">
         <v>0</v>
@@ -79931,7 +79931,7 @@
         <v>0</v>
       </c>
       <c r="AI219">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ219">
         <v>0</v>
@@ -79955,7 +79955,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ219">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR219">
         <v>0.1666666666666667</v>
@@ -79979,7 +79979,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY219">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ219">
         <v>0.1428571428571428</v>
@@ -80284,7 +80284,7 @@
         <v>175</v>
       </c>
       <c r="AF220" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG220">
         <v>0.4</v>
@@ -80398,7 +80398,7 @@
         <v>175</v>
       </c>
       <c r="BR220" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BS220">
         <v>0.4</v>
@@ -80655,7 +80655,7 @@
         <v>0.2</v>
       </c>
       <c r="AI221">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ221">
         <v>0.2</v>
@@ -80679,7 +80679,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ221">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR221">
         <v>0.1666666666666667</v>
@@ -80703,7 +80703,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY221">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ221">
         <v>0.1428571428571428</v>
@@ -80963,10 +80963,10 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R222">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S222">
         <v>0</v>
@@ -81017,7 +81017,7 @@
         <v>0</v>
       </c>
       <c r="AI222">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ222">
         <v>0</v>
@@ -81041,7 +81041,7 @@
         <v>0</v>
       </c>
       <c r="AQ222">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AR222">
         <v>0</v>
@@ -81065,7 +81065,7 @@
         <v>0</v>
       </c>
       <c r="AY222">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="AZ222">
         <v>0</v>
@@ -81089,7 +81089,7 @@
         <v>0.25</v>
       </c>
       <c r="BG222">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH222">
         <v>0</v>
@@ -81131,7 +81131,7 @@
         <v>0.2</v>
       </c>
       <c r="BU222">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV222">
         <v>0</v>
@@ -81149,7 +81149,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA222">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB222">
         <v>0</v>
@@ -81167,7 +81167,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG222">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH222">
         <v>0</v>
@@ -81379,7 +81379,7 @@
         <v>0.2</v>
       </c>
       <c r="AI223">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ223">
         <v>0.2</v>
@@ -81403,7 +81403,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ223">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR223">
         <v>0.1666666666666667</v>
@@ -81427,7 +81427,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY223">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ223">
         <v>0.1428571428571428</v>
@@ -81493,7 +81493,7 @@
         <v>0.2</v>
       </c>
       <c r="BU223">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV223">
         <v>0.2</v>
@@ -81511,7 +81511,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA223">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB223">
         <v>0.1666666666666667</v>
@@ -81529,7 +81529,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG223">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH223">
         <v>0.1428571428571428</v>
@@ -82773,10 +82773,10 @@
         <v>0.25</v>
       </c>
       <c r="Q227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R227">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S227">
         <v>1</v>
@@ -82827,7 +82827,7 @@
         <v>0.2</v>
       </c>
       <c r="AI227">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ227">
         <v>0.2</v>
@@ -82851,7 +82851,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ227">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR227">
         <v>0.3333333333333333</v>
@@ -82875,7 +82875,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY227">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ227">
         <v>0.2857142857142857</v>
@@ -83135,10 +83135,10 @@
         <v>0.25</v>
       </c>
       <c r="Q228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S228">
         <v>1</v>
@@ -83189,7 +83189,7 @@
         <v>0.2</v>
       </c>
       <c r="AI228">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ228">
         <v>0.2</v>
@@ -83213,7 +83213,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ228">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR228">
         <v>0.1666666666666667</v>
@@ -83237,7 +83237,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY228">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ228">
         <v>0.2857142857142857</v>
@@ -83575,7 +83575,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ229">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR229">
         <v>0.1666666666666667</v>
@@ -83599,7 +83599,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY229">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ229">
         <v>0.1428571428571428</v>
@@ -83683,7 +83683,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA229">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB229">
         <v>0.1666666666666667</v>
@@ -83701,7 +83701,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG229">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH229">
         <v>0.1428571428571428</v>
@@ -83961,7 +83961,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY230">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ230">
         <v>0.1428571428571428</v>
@@ -84583,10 +84583,10 @@
         <v>0.25</v>
       </c>
       <c r="Q232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R232">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S232">
         <v>1</v>
@@ -84637,7 +84637,7 @@
         <v>0.2</v>
       </c>
       <c r="AI232">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ232">
         <v>0.2</v>
@@ -84661,7 +84661,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ232">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR232">
         <v>0.1666666666666667</v>
@@ -84685,7 +84685,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY232">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ232">
         <v>0.2857142857142857</v>
@@ -84709,7 +84709,7 @@
         <v>0.25</v>
       </c>
       <c r="BG232">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH232">
         <v>0.25</v>
@@ -84751,7 +84751,7 @@
         <v>0.4</v>
       </c>
       <c r="BU232">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV232">
         <v>0.2</v>
@@ -84769,7 +84769,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA232">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB232">
         <v>0.1666666666666667</v>
@@ -84787,7 +84787,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="CG232">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH232">
         <v>0.2857142857142857</v>
@@ -85307,10 +85307,10 @@
         <v>0.25</v>
       </c>
       <c r="Q234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R234">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S234">
         <v>1</v>
@@ -85352,7 +85352,7 @@
         <v>177</v>
       </c>
       <c r="AF234" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG234">
         <v>0.2</v>
@@ -85361,7 +85361,7 @@
         <v>0.4</v>
       </c>
       <c r="AI234">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ234">
         <v>0.4</v>
@@ -85385,7 +85385,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ234">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR234">
         <v>0.3333333333333333</v>
@@ -85409,7 +85409,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY234">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ234">
         <v>0.2857142857142857</v>
@@ -85466,7 +85466,7 @@
         <v>177</v>
       </c>
       <c r="BR234" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BS234">
         <v>0.4</v>
@@ -86085,7 +86085,7 @@
         <v>0.2</v>
       </c>
       <c r="AI236">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ236">
         <v>0.2</v>
@@ -86109,7 +86109,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ236">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR236">
         <v>0.1666666666666667</v>
@@ -86133,7 +86133,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY236">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ236">
         <v>0.1428571428571428</v>
@@ -86393,10 +86393,10 @@
         <v>0.25</v>
       </c>
       <c r="Q237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R237">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S237">
         <v>1</v>
@@ -86447,7 +86447,7 @@
         <v>0.2</v>
       </c>
       <c r="AI237">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ237">
         <v>0.2</v>
@@ -86471,7 +86471,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ237">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR237">
         <v>0.1666666666666667</v>
@@ -86495,7 +86495,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY237">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ237">
         <v>0.1428571428571428</v>
@@ -86519,7 +86519,7 @@
         <v>0.25</v>
       </c>
       <c r="BG237">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH237">
         <v>0.25</v>
@@ -86561,7 +86561,7 @@
         <v>0.2</v>
       </c>
       <c r="BU237">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV237">
         <v>0.2</v>
@@ -86579,7 +86579,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA237">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB237">
         <v>0.1666666666666667</v>
@@ -86597,7 +86597,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG237">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH237">
         <v>0.1428571428571428</v>
@@ -86755,10 +86755,10 @@
         <v>0.25</v>
       </c>
       <c r="Q238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R238">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S238">
         <v>1</v>
@@ -86809,7 +86809,7 @@
         <v>0.2</v>
       </c>
       <c r="AI238">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ238">
         <v>0.2</v>
@@ -86833,7 +86833,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ238">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR238">
         <v>0.1666666666666667</v>
@@ -86857,7 +86857,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY238">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ238">
         <v>0.1428571428571428</v>
@@ -87117,10 +87117,10 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R239">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S239">
         <v>0</v>
@@ -87162,7 +87162,7 @@
         <v>175</v>
       </c>
       <c r="AF239" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG239">
         <v>0.4</v>
@@ -87171,7 +87171,7 @@
         <v>0</v>
       </c>
       <c r="AI239">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ239">
         <v>0</v>
@@ -87195,7 +87195,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ239">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR239">
         <v>0.1666666666666667</v>
@@ -87219,7 +87219,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY239">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ239">
         <v>0.1428571428571428</v>
@@ -87243,7 +87243,7 @@
         <v>0.25</v>
       </c>
       <c r="BG239">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH239">
         <v>0</v>
@@ -87285,7 +87285,7 @@
         <v>0.2</v>
       </c>
       <c r="BU239">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV239">
         <v>0</v>
@@ -87303,7 +87303,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA239">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB239">
         <v>0.1666666666666667</v>
@@ -87321,7 +87321,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG239">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH239">
         <v>0.1428571428571428</v>
@@ -87581,7 +87581,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY240">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ240">
         <v>0.1428571428571428</v>
@@ -87683,7 +87683,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG240">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH240">
         <v>0.1428571428571428</v>
@@ -88565,10 +88565,10 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R243">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S243">
         <v>0</v>
@@ -88619,7 +88619,7 @@
         <v>0</v>
       </c>
       <c r="AI243">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ243">
         <v>0</v>
@@ -88643,7 +88643,7 @@
         <v>0</v>
       </c>
       <c r="AQ243">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR243">
         <v>0</v>
@@ -88667,7 +88667,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY243">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ243">
         <v>0.1428571428571428</v>
@@ -88691,7 +88691,7 @@
         <v>0</v>
       </c>
       <c r="BG243">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH243">
         <v>0</v>
@@ -88733,7 +88733,7 @@
         <v>0</v>
       </c>
       <c r="BU243">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV243">
         <v>0</v>
@@ -88751,7 +88751,7 @@
         <v>0</v>
       </c>
       <c r="CA243">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB243">
         <v>0</v>
@@ -88769,7 +88769,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG243">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH243">
         <v>0.1428571428571428</v>
@@ -89289,10 +89289,10 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R245">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S245">
         <v>0</v>
@@ -89343,7 +89343,7 @@
         <v>0</v>
       </c>
       <c r="AI245">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ245">
         <v>0</v>
@@ -89367,7 +89367,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ245">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR245">
         <v>0.1666666666666667</v>
@@ -89391,7 +89391,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY245">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ245">
         <v>0.1428571428571428</v>
@@ -89415,7 +89415,7 @@
         <v>0</v>
       </c>
       <c r="BG245">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH245">
         <v>0</v>
@@ -89457,7 +89457,7 @@
         <v>0</v>
       </c>
       <c r="BU245">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV245">
         <v>0</v>
@@ -89475,7 +89475,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA245">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB245">
         <v>0.1666666666666667</v>
@@ -89493,7 +89493,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG245">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH245">
         <v>0.1428571428571428</v>
@@ -91099,10 +91099,10 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R250">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S250">
         <v>0</v>
@@ -91153,7 +91153,7 @@
         <v>0</v>
       </c>
       <c r="AI250">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ250">
         <v>0</v>
@@ -91177,7 +91177,7 @@
         <v>0</v>
       </c>
       <c r="AQ250">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AR250">
         <v>0</v>
@@ -91201,7 +91201,7 @@
         <v>0</v>
       </c>
       <c r="AY250">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="AZ250">
         <v>0</v>
@@ -91267,7 +91267,7 @@
         <v>0</v>
       </c>
       <c r="BU250">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV250">
         <v>0</v>
@@ -91285,7 +91285,7 @@
         <v>0</v>
       </c>
       <c r="CA250">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB250">
         <v>0</v>
@@ -91303,7 +91303,7 @@
         <v>0</v>
       </c>
       <c r="CG250">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH250">
         <v>0</v>
@@ -91515,7 +91515,7 @@
         <v>0.2</v>
       </c>
       <c r="AI251">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ251">
         <v>0.2</v>
@@ -91539,7 +91539,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ251">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR251">
         <v>0.1666666666666667</v>
@@ -91563,7 +91563,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY251">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ251">
         <v>0.1428571428571428</v>
@@ -91823,10 +91823,10 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S252">
         <v>0</v>
@@ -91877,7 +91877,7 @@
         <v>0</v>
       </c>
       <c r="AI252">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ252">
         <v>0</v>
@@ -91901,7 +91901,7 @@
         <v>0</v>
       </c>
       <c r="AQ252">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AR252">
         <v>0</v>
@@ -91925,7 +91925,7 @@
         <v>0</v>
       </c>
       <c r="AY252">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="AZ252">
         <v>0</v>
@@ -92009,7 +92009,7 @@
         <v>0</v>
       </c>
       <c r="CA252">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB252">
         <v>0</v>
@@ -92027,7 +92027,7 @@
         <v>0</v>
       </c>
       <c r="CG252">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH252">
         <v>0</v>
@@ -92547,10 +92547,10 @@
         <v>0.25</v>
       </c>
       <c r="Q254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R254">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S254">
         <v>1</v>
@@ -92601,7 +92601,7 @@
         <v>0.2</v>
       </c>
       <c r="AI254">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ254">
         <v>0.2</v>
@@ -92625,7 +92625,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ254">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR254">
         <v>0.1666666666666667</v>
@@ -92649,7 +92649,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY254">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ254">
         <v>0.1428571428571428</v>
@@ -92673,7 +92673,7 @@
         <v>0.25</v>
       </c>
       <c r="BG254">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH254">
         <v>0.25</v>
@@ -92715,7 +92715,7 @@
         <v>0.2</v>
       </c>
       <c r="BU254">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV254">
         <v>0.2</v>
@@ -92733,7 +92733,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA254">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB254">
         <v>0.1666666666666667</v>
@@ -92751,7 +92751,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG254">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH254">
         <v>0.1428571428571428</v>
@@ -92987,7 +92987,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ255">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR255">
         <v>0.1666666666666667</v>
@@ -93011,7 +93011,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY255">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ255">
         <v>0.1428571428571428</v>
@@ -93316,7 +93316,7 @@
         <v>175</v>
       </c>
       <c r="AF256" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG256">
         <v>0.4</v>
@@ -93373,7 +93373,7 @@
         <v>0</v>
       </c>
       <c r="AY256">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ256">
         <v>0</v>
@@ -93475,7 +93475,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG256">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH256">
         <v>0</v>
@@ -93633,10 +93633,10 @@
         <v>0.25</v>
       </c>
       <c r="Q257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R257">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S257">
         <v>1</v>
@@ -93687,7 +93687,7 @@
         <v>0.2</v>
       </c>
       <c r="AI257">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ257">
         <v>0.2</v>
@@ -93711,7 +93711,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ257">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR257">
         <v>0.1666666666666667</v>
@@ -93735,7 +93735,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY257">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ257">
         <v>0.1428571428571428</v>
@@ -94040,7 +94040,7 @@
         <v>177</v>
       </c>
       <c r="AF258" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG258">
         <v>0</v>
@@ -94097,7 +94097,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY258">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ258">
         <v>0.1428571428571428</v>
@@ -94154,7 +94154,7 @@
         <v>177</v>
       </c>
       <c r="BR258" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BS258">
         <v>0.2</v>
@@ -94357,10 +94357,10 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R259">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S259">
         <v>0</v>
@@ -94411,7 +94411,7 @@
         <v>0</v>
       </c>
       <c r="AI259">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ259">
         <v>0</v>
@@ -94435,7 +94435,7 @@
         <v>0</v>
       </c>
       <c r="AQ259">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR259">
         <v>0</v>
@@ -94459,7 +94459,7 @@
         <v>0</v>
       </c>
       <c r="AY259">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ259">
         <v>0</v>
@@ -94719,10 +94719,10 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R260">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S260">
         <v>0</v>
@@ -94773,7 +94773,7 @@
         <v>0.2</v>
       </c>
       <c r="AI260">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ260">
         <v>0.2</v>
@@ -94797,7 +94797,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ260">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR260">
         <v>0.1666666666666667</v>
@@ -94821,7 +94821,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY260">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ260">
         <v>0.1428571428571428</v>
@@ -94845,7 +94845,7 @@
         <v>0</v>
       </c>
       <c r="BG260">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH260">
         <v>0</v>
@@ -94887,7 +94887,7 @@
         <v>0.2</v>
       </c>
       <c r="BU260">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV260">
         <v>0.2</v>
@@ -94905,7 +94905,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA260">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB260">
         <v>0.1666666666666667</v>
@@ -94923,7 +94923,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG260">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH260">
         <v>0.1428571428571428</v>
@@ -95545,7 +95545,7 @@
         <v>0</v>
       </c>
       <c r="AY262">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ262">
         <v>0</v>
@@ -96529,10 +96529,10 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R265">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S265">
         <v>0</v>
@@ -96583,7 +96583,7 @@
         <v>0</v>
       </c>
       <c r="AI265">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ265">
         <v>0</v>
@@ -96607,7 +96607,7 @@
         <v>0</v>
       </c>
       <c r="AQ265">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR265">
         <v>0</v>
@@ -96631,7 +96631,7 @@
         <v>0</v>
       </c>
       <c r="AY265">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ265">
         <v>0</v>
@@ -96891,10 +96891,10 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R266">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S266">
         <v>0</v>
@@ -96945,7 +96945,7 @@
         <v>0.2</v>
       </c>
       <c r="AI266">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ266">
         <v>0.2</v>
@@ -96969,7 +96969,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ266">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR266">
         <v>0.1666666666666667</v>
@@ -96993,7 +96993,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY266">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ266">
         <v>0.1428571428571428</v>
@@ -97017,7 +97017,7 @@
         <v>0</v>
       </c>
       <c r="BG266">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH266">
         <v>0</v>
@@ -97059,7 +97059,7 @@
         <v>0.2</v>
       </c>
       <c r="BU266">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV266">
         <v>0.2</v>
@@ -97077,7 +97077,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA266">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB266">
         <v>0.1666666666666667</v>
@@ -97095,7 +97095,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG266">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH266">
         <v>0.1428571428571428</v>
@@ -97331,7 +97331,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ267">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR267">
         <v>0.1666666666666667</v>
@@ -97355,7 +97355,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY267">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ267">
         <v>0.1428571428571428</v>
@@ -97669,7 +97669,7 @@
         <v>0.2</v>
       </c>
       <c r="AI268">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ268">
         <v>0.2</v>
@@ -97693,7 +97693,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ268">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR268">
         <v>0.1666666666666667</v>
@@ -97717,7 +97717,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY268">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ268">
         <v>0.1428571428571428</v>
@@ -97783,7 +97783,7 @@
         <v>0.2</v>
       </c>
       <c r="BU268">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV268">
         <v>0.2</v>
@@ -97801,7 +97801,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA268">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB268">
         <v>0.1666666666666667</v>
@@ -97819,7 +97819,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG268">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH268">
         <v>0.1428571428571428</v>
@@ -98417,7 +98417,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ270">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR270">
         <v>0.3333333333333333</v>
@@ -98441,7 +98441,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY270">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ270">
         <v>0.2857142857142857</v>
@@ -98525,7 +98525,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA270">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB270">
         <v>0.3333333333333333</v>
@@ -98543,7 +98543,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG270">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH270">
         <v>0.2857142857142857</v>
@@ -98701,10 +98701,10 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R271">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S271">
         <v>0</v>
@@ -98746,7 +98746,7 @@
         <v>175</v>
       </c>
       <c r="AF271" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG271">
         <v>0.2</v>
@@ -98755,7 +98755,7 @@
         <v>0</v>
       </c>
       <c r="AI271">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ271">
         <v>0</v>
@@ -98779,7 +98779,7 @@
         <v>0</v>
       </c>
       <c r="AQ271">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR271">
         <v>0</v>
@@ -98803,7 +98803,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY271">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ271">
         <v>0.1428571428571428</v>
@@ -98827,7 +98827,7 @@
         <v>0</v>
       </c>
       <c r="BG271">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH271">
         <v>0</v>
@@ -98869,7 +98869,7 @@
         <v>0</v>
       </c>
       <c r="BU271">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV271">
         <v>0</v>
@@ -98887,7 +98887,7 @@
         <v>0</v>
       </c>
       <c r="CA271">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB271">
         <v>0</v>
@@ -98905,7 +98905,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG271">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH271">
         <v>0.1428571428571428</v>
@@ -99117,7 +99117,7 @@
         <v>0</v>
       </c>
       <c r="AI272">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ272">
         <v>0</v>
@@ -99141,7 +99141,7 @@
         <v>0</v>
       </c>
       <c r="AQ272">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR272">
         <v>0</v>
@@ -99165,7 +99165,7 @@
         <v>0</v>
       </c>
       <c r="AY272">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ272">
         <v>0</v>
@@ -99425,10 +99425,10 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R273">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S273">
         <v>0</v>
@@ -99479,7 +99479,7 @@
         <v>0</v>
       </c>
       <c r="AI273">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ273">
         <v>0</v>
@@ -99503,7 +99503,7 @@
         <v>0</v>
       </c>
       <c r="AQ273">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR273">
         <v>0</v>
@@ -99527,7 +99527,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY273">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ273">
         <v>0.1428571428571428</v>
@@ -100149,10 +100149,10 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R275">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S275">
         <v>0</v>
@@ -100203,7 +100203,7 @@
         <v>0</v>
       </c>
       <c r="AI275">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ275">
         <v>0</v>
@@ -100227,7 +100227,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ275">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR275">
         <v>0.1666666666666667</v>
@@ -100251,7 +100251,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY275">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ275">
         <v>0.1428571428571428</v>
@@ -100275,7 +100275,7 @@
         <v>0</v>
       </c>
       <c r="BG275">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH275">
         <v>0</v>
@@ -100317,7 +100317,7 @@
         <v>0</v>
       </c>
       <c r="BU275">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV275">
         <v>0</v>
@@ -100335,7 +100335,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA275">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB275">
         <v>0.1666666666666667</v>
@@ -100353,7 +100353,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG275">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH275">
         <v>0.1428571428571428</v>
@@ -100511,10 +100511,10 @@
         <v>0.25</v>
       </c>
       <c r="Q276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R276">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S276">
         <v>1</v>
@@ -100565,7 +100565,7 @@
         <v>0.2</v>
       </c>
       <c r="AI276">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ276">
         <v>0.2</v>
@@ -100589,7 +100589,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ276">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR276">
         <v>0.1666666666666667</v>
@@ -100613,7 +100613,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY276">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ276">
         <v>0.1428571428571428</v>
@@ -100637,7 +100637,7 @@
         <v>0.25</v>
       </c>
       <c r="BG276">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH276">
         <v>0.25</v>
@@ -100679,7 +100679,7 @@
         <v>0.2</v>
       </c>
       <c r="BU276">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV276">
         <v>0.2</v>
@@ -100697,7 +100697,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA276">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB276">
         <v>0.1666666666666667</v>
@@ -100715,7 +100715,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG276">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH276">
         <v>0.1428571428571428</v>
@@ -100873,10 +100873,10 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R277">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S277">
         <v>0</v>
@@ -100927,7 +100927,7 @@
         <v>0</v>
       </c>
       <c r="AI277">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ277">
         <v>0</v>
@@ -100951,7 +100951,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ277">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR277">
         <v>0.1666666666666667</v>
@@ -100975,7 +100975,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY277">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ277">
         <v>0.1428571428571428</v>
@@ -101337,7 +101337,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY278">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ278">
         <v>0.2857142857142857</v>
@@ -101439,7 +101439,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG278">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH278">
         <v>0.2857142857142857</v>
@@ -102321,10 +102321,10 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R281">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S281">
         <v>0</v>
@@ -102366,7 +102366,7 @@
         <v>175</v>
       </c>
       <c r="AF281" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG281">
         <v>0</v>
@@ -102375,7 +102375,7 @@
         <v>0</v>
       </c>
       <c r="AI281">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ281">
         <v>0</v>
@@ -102399,7 +102399,7 @@
         <v>0</v>
       </c>
       <c r="AQ281">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR281">
         <v>0</v>
@@ -102423,7 +102423,7 @@
         <v>0</v>
       </c>
       <c r="AY281">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ281">
         <v>0</v>
@@ -102480,7 +102480,7 @@
         <v>175</v>
       </c>
       <c r="BR281" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BS281">
         <v>0</v>
@@ -102683,10 +102683,10 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R282">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S282">
         <v>0</v>
@@ -102737,7 +102737,7 @@
         <v>0</v>
       </c>
       <c r="AI282">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ282">
         <v>0</v>
@@ -102761,7 +102761,7 @@
         <v>0</v>
       </c>
       <c r="AQ282">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR282">
         <v>0</v>
@@ -102785,7 +102785,7 @@
         <v>0</v>
       </c>
       <c r="AY282">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ282">
         <v>0</v>
@@ -102809,7 +102809,7 @@
         <v>0</v>
       </c>
       <c r="BG282">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH282">
         <v>0</v>
@@ -102851,7 +102851,7 @@
         <v>0</v>
       </c>
       <c r="BU282">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV282">
         <v>0</v>
@@ -102869,7 +102869,7 @@
         <v>0</v>
       </c>
       <c r="CA282">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB282">
         <v>0</v>
@@ -102887,7 +102887,7 @@
         <v>0</v>
       </c>
       <c r="CG282">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="CH282">
         <v>0</v>
@@ -103045,10 +103045,10 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R283">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S283">
         <v>0</v>
@@ -103099,7 +103099,7 @@
         <v>0</v>
       </c>
       <c r="AI283">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ283">
         <v>0</v>
@@ -103123,7 +103123,7 @@
         <v>0</v>
       </c>
       <c r="AQ283">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR283">
         <v>0</v>
@@ -103147,7 +103147,7 @@
         <v>0</v>
       </c>
       <c r="AY283">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ283">
         <v>0</v>
@@ -103461,7 +103461,7 @@
         <v>0</v>
       </c>
       <c r="AI284">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ284">
         <v>0</v>
@@ -103485,7 +103485,7 @@
         <v>0</v>
       </c>
       <c r="AQ284">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR284">
         <v>0</v>
@@ -103509,7 +103509,7 @@
         <v>0</v>
       </c>
       <c r="AY284">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ284">
         <v>0</v>
@@ -103575,7 +103575,7 @@
         <v>0</v>
       </c>
       <c r="BU284">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV284">
         <v>0</v>
@@ -103593,7 +103593,7 @@
         <v>0</v>
       </c>
       <c r="CA284">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB284">
         <v>0</v>
@@ -103611,7 +103611,7 @@
         <v>0</v>
       </c>
       <c r="CG284">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH284">
         <v>0</v>
@@ -103769,10 +103769,10 @@
         <v>0.5</v>
       </c>
       <c r="Q285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R285">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S285">
         <v>2</v>
@@ -103823,7 +103823,7 @@
         <v>0.4</v>
       </c>
       <c r="AI285">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ285">
         <v>0.4</v>
@@ -103847,7 +103847,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ285">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR285">
         <v>0.3333333333333333</v>
@@ -103871,7 +103871,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY285">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ285">
         <v>0.2857142857142857</v>
@@ -104131,10 +104131,10 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R286">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S286">
         <v>0</v>
@@ -104185,7 +104185,7 @@
         <v>0</v>
       </c>
       <c r="AI286">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ286">
         <v>0</v>
@@ -104209,7 +104209,7 @@
         <v>0</v>
       </c>
       <c r="AQ286">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR286">
         <v>0</v>
@@ -104233,7 +104233,7 @@
         <v>0</v>
       </c>
       <c r="AY286">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ286">
         <v>0</v>
@@ -104257,7 +104257,7 @@
         <v>0</v>
       </c>
       <c r="BG286">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH286">
         <v>0</v>
@@ -104299,7 +104299,7 @@
         <v>0</v>
       </c>
       <c r="BU286">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV286">
         <v>0</v>
@@ -104317,7 +104317,7 @@
         <v>0</v>
       </c>
       <c r="CA286">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB286">
         <v>0</v>
@@ -104335,7 +104335,7 @@
         <v>0</v>
       </c>
       <c r="CG286">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH286">
         <v>0</v>
@@ -104538,7 +104538,7 @@
         <v>175</v>
       </c>
       <c r="AF287" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG287">
         <v>0.2</v>
@@ -104652,7 +104652,7 @@
         <v>177</v>
       </c>
       <c r="BR287" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BS287">
         <v>0.2</v>
@@ -104909,7 +104909,7 @@
         <v>0</v>
       </c>
       <c r="AI288">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ288">
         <v>0</v>
@@ -104933,7 +104933,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ288">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR288">
         <v>0.1666666666666667</v>
@@ -104957,7 +104957,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY288">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ288">
         <v>0.1428571428571428</v>
@@ -106405,7 +106405,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY292">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ292">
         <v>0.1428571428571428</v>
@@ -106507,7 +106507,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG292">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH292">
         <v>0.1428571428571428</v>
@@ -106665,10 +106665,10 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R293">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S293">
         <v>0</v>
@@ -106719,7 +106719,7 @@
         <v>0</v>
       </c>
       <c r="AI293">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ293">
         <v>0</v>
@@ -106743,7 +106743,7 @@
         <v>0</v>
       </c>
       <c r="AQ293">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR293">
         <v>0</v>
@@ -106767,7 +106767,7 @@
         <v>0</v>
       </c>
       <c r="AY293">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ293">
         <v>0</v>
@@ -106791,7 +106791,7 @@
         <v>0</v>
       </c>
       <c r="BG293">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH293">
         <v>0</v>
@@ -106833,7 +106833,7 @@
         <v>0</v>
       </c>
       <c r="BU293">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV293">
         <v>0</v>
@@ -106851,7 +106851,7 @@
         <v>0</v>
       </c>
       <c r="CA293">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB293">
         <v>0</v>
@@ -106869,7 +106869,7 @@
         <v>0</v>
       </c>
       <c r="CG293">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH293">
         <v>0</v>
@@ -107829,7 +107829,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ296">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR296">
         <v>0.1666666666666667</v>
@@ -107853,7 +107853,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY296">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ296">
         <v>0.1428571428571428</v>
@@ -107937,7 +107937,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA296">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB296">
         <v>0.1666666666666667</v>
@@ -107955,7 +107955,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG296">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH296">
         <v>0.1428571428571428</v>
@@ -108113,10 +108113,10 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R297">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S297">
         <v>0</v>
@@ -108167,7 +108167,7 @@
         <v>0.2</v>
       </c>
       <c r="AI297">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ297">
         <v>0.2</v>
@@ -108191,7 +108191,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ297">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR297">
         <v>0.1666666666666667</v>
@@ -108215,7 +108215,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY297">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ297">
         <v>0.1428571428571428</v>
@@ -108553,7 +108553,7 @@
         <v>0</v>
       </c>
       <c r="AQ298">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR298">
         <v>0</v>
@@ -108577,7 +108577,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY298">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ298">
         <v>0.1428571428571428</v>
@@ -108837,10 +108837,10 @@
         <v>0.25</v>
       </c>
       <c r="Q299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R299">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S299">
         <v>1</v>
@@ -108891,7 +108891,7 @@
         <v>0.2</v>
       </c>
       <c r="AI299">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ299">
         <v>0.2</v>
@@ -108915,7 +108915,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ299">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR299">
         <v>0.1666666666666667</v>
@@ -108939,7 +108939,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY299">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ299">
         <v>0.1428571428571428</v>
@@ -108963,7 +108963,7 @@
         <v>0.25</v>
       </c>
       <c r="BG299">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH299">
         <v>0.25</v>
@@ -109005,7 +109005,7 @@
         <v>0.2</v>
       </c>
       <c r="BU299">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV299">
         <v>0.2</v>
@@ -109023,7 +109023,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA299">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB299">
         <v>0.1666666666666667</v>
@@ -109041,7 +109041,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG299">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH299">
         <v>0.1428571428571428</v>
@@ -109244,7 +109244,7 @@
         <v>177</v>
       </c>
       <c r="AF300" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG300">
         <v>0</v>
@@ -109561,10 +109561,10 @@
         <v>0.25</v>
       </c>
       <c r="Q301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R301">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S301">
         <v>1</v>
@@ -109615,7 +109615,7 @@
         <v>0.2</v>
       </c>
       <c r="AI301">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ301">
         <v>0.2</v>
@@ -109639,7 +109639,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ301">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR301">
         <v>0.1666666666666667</v>
@@ -109663,7 +109663,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY301">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ301">
         <v>0.1428571428571428</v>
